--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AE4C97-E5AA-4D2E-B4C9-D5E85D3C779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04D1B0-FBD1-43AE-B677-10612B99F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dropdown Items" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$15:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="414">
   <si>
     <t>UNIT</t>
   </si>
@@ -1234,12 +1234,6 @@
   </si>
   <si>
     <t>PubChemID</t>
-  </si>
-  <si>
-    <t>boiling_point</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>common_name</t>
@@ -2104,7 +2098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2423,9 +2417,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,6 +2446,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2774,7 +2774,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2802,10 +2802,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="114" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>131</v>
@@ -2993,13 +2993,15 @@
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>398</v>
-      </c>
       <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="D21" s="107" t="s">
+        <v>227</v>
+      </c>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5">
@@ -3032,7 +3034,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="48"/>
@@ -3040,12 +3042,12 @@
         <v>227</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B27" s="102"/>
       <c r="C27" s="48"/>
@@ -3055,7 +3057,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" s="48"/>
@@ -3065,7 +3067,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="48"/>
@@ -3078,7 +3080,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="48"/>
@@ -3088,7 +3090,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="48"/>
@@ -3098,7 +3100,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="48"/>
@@ -3108,7 +3110,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="48"/>
@@ -3118,7 +3120,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="48"/>
@@ -3128,7 +3130,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="48"/>
@@ -3138,7 +3140,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="48"/>
@@ -3148,7 +3150,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="102"/>
       <c r="C37" s="48"/>
@@ -3158,7 +3160,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" s="48"/>
@@ -3171,7 +3173,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="112"/>
       <c r="C39" s="108"/>
@@ -3364,7 +3366,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3390,7 +3392,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3402,7 +3404,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3410,13 +3412,13 @@
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3735,10 +3737,10 @@
         <v>317</v>
       </c>
       <c r="H32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3758,10 +3760,10 @@
         <v>290</v>
       </c>
       <c r="H33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3778,10 +3780,10 @@
         <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3796,10 +3798,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3814,10 +3816,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3828,14 +3830,14 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3850,10 +3852,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -4017,7 +4019,7 @@
         <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4025,7 +4027,7 @@
         <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -4043,7 +4045,7 @@
         <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4051,7 +4053,7 @@
         <v>308</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -4069,7 +4071,7 @@
         <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4077,7 +4079,7 @@
         <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
         <v>123</v>
@@ -4102,10 +4104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4133,17 +4135,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="126" t="s">
         <v>287</v>
       </c>
       <c r="C4" s="48"/>
@@ -4153,7 +4155,7 @@
       <c r="A5" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="125" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="48"/>
@@ -4214,10 +4216,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4227,7 +4229,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4237,227 +4239,234 @@
       <c r="A13" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="51">
+        <v>1140</v>
+      </c>
+      <c r="C13" s="135"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="124" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="35"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="44"/>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="121" t="s">
+      <c r="A16" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="81"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="69"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="81"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="D18" s="71"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="69"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="72"/>
+      <c r="D20" s="72"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="72"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="72"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="53"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="117"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="72"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="75"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>167</v>
-      </c>
+      <c r="A26" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="51" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B27,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="42"/>
+        <v>331</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>62</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B31" s="51"/>
       <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="51" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+        <v>363</v>
+      </c>
+      <c r="B32" s="51">
+        <v>1</v>
       </c>
       <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="45" t="s">
-        <v>349</v>
-      </c>
+      <c r="A33" s="69"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="45" t="s">
-        <v>349</v>
-      </c>
+      <c r="A34" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="51">
-        <v>1</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B36" s="51"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="51"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="45"/>
+      <c r="A38" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="51"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="69" t="s">
-        <v>271</v>
+      <c r="A39" s="99" t="s">
+        <v>275</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
@@ -4465,103 +4474,87 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="43" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A42" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="81"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="69"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="81"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="41"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="69"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="69"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="69"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="69"/>
-      <c r="B49" s="123"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="45"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="69"/>
       <c r="B50" s="51"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="45"/>
       <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="69"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="45"/>
       <c r="D52" s="43"/>
     </row>
@@ -4579,57 +4572,33 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="69"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="98"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="69"/>
+      <c r="A57" s="99"/>
       <c r="B57" s="51"/>
       <c r="C57" s="45"/>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="69"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="43"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="69"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="43"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="99"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="43"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="99"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="96" spans="1:2" ht="26.25">
-      <c r="A96" s="62" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="100"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="44"/>
+    </row>
+    <row r="92" spans="1:2" ht="26.25">
+      <c r="A92" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B92" s="62" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4649,13 +4618,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B21</xm:sqref>
+          <xm:sqref>B12 B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B31 B49</xm:sqref>
+          <xm:sqref>B27 B45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4695,19 +4664,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5086,7 +5055,7 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>260</v>
@@ -5981,19 +5950,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6409,10 +6378,10 @@
         <v>167</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
@@ -6481,10 +6450,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
@@ -6495,7 +6464,7 @@
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J30" s="72" t="s">
         <v>260</v>
@@ -6569,7 +6538,7 @@
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D34" s="72" t="s">
         <v>260</v>
@@ -6668,7 +6637,7 @@
         <v>215</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6745,19 +6714,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7002,7 +6971,7 @@
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I18" s="71" t="s">
         <v>260</v>
@@ -7204,7 +7173,7 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I37" s="71" t="s">
         <v>260</v>
@@ -7359,19 +7328,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7473,7 +7442,7 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>260</v>
@@ -7734,30 +7703,30 @@
         <v>94</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G1" s="77" t="s">
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -7794,22 +7763,22 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="I5" s="76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O5" s="77" t="s">
         <v>167</v>
@@ -7817,22 +7786,22 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="F6" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G6" s="77" t="s">
         <v>167</v>
@@ -7862,7 +7831,7 @@
         <v>217</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7875,7 +7844,7 @@
         <v>217</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7908,7 +7877,7 @@
         <v>227</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="127" t="s">
         <v>218</v>
       </c>
       <c r="J9" s="53">
@@ -7925,7 +7894,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="127" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="53">
@@ -7941,7 +7910,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G10" s="71" t="s">
         <v>225</v>
@@ -7975,8 +7944,8 @@
         <v>227</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="128" t="s">
-        <v>388</v>
+      <c r="I11" s="127" t="s">
+        <v>386</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
@@ -7988,8 +7957,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="128" t="s">
-        <v>388</v>
+      <c r="A12" s="127" t="s">
+        <v>386</v>
       </c>
       <c r="B12" s="53">
         <v>2.5</v>
@@ -8002,7 +7971,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>225</v>
@@ -8217,7 +8186,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I20" s="69" t="s">
         <v>245</v>
@@ -8324,7 +8293,7 @@
         <v>243</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="48"/>
@@ -8337,7 +8306,7 @@
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8750,37 +8719,37 @@
         <v>241</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="129" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8825,19 +8794,19 @@
         <v>97</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="F5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>167</v>
@@ -8847,19 +8816,19 @@
         <v>97</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>167</v>
@@ -11043,7 +11012,7 @@
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -11054,7 +11023,7 @@
         <v>227</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48"/>
@@ -11110,19 +11079,19 @@
         <v>101</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="F14" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>167</v>
@@ -11151,19 +11120,19 @@
         <v>98</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M15" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="N15" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O15" s="68" t="s">
         <v>167</v>
@@ -11195,7 +11164,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11223,7 +11192,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11234,7 +11203,7 @@
         <v>225</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
@@ -11247,7 +11216,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11275,7 +11244,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11286,7 +11255,7 @@
         <v>225</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48"/>
@@ -11299,7 +11268,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11325,7 +11294,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11345,7 +11314,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11367,7 +11336,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11381,19 +11350,19 @@
         <v>99</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="N24" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O24" s="68" t="s">
         <v>167</v>
@@ -11451,7 +11420,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11546,7 +11515,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="I32" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48"/>
@@ -11593,19 +11562,19 @@
         <v>101</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M36" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="N36" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M36" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N36" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O36" s="68" t="s">
         <v>167</v>
@@ -11639,7 +11608,7 @@
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="48" t="s">
@@ -11654,7 +11623,7 @@
     </row>
     <row r="40" spans="9:15">
       <c r="I40" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="48"/>
@@ -11667,7 +11636,7 @@
     </row>
     <row r="41" spans="9:15">
       <c r="I41" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="48" t="s">
@@ -11682,7 +11651,7 @@
     </row>
     <row r="42" spans="9:15">
       <c r="I42" s="69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="48"/>
@@ -11695,7 +11664,7 @@
     </row>
     <row r="43" spans="9:15">
       <c r="I43" s="69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="48" t="s">
@@ -11710,7 +11679,7 @@
     </row>
     <row r="44" spans="9:15">
       <c r="I44" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="48"/>
@@ -11723,7 +11692,7 @@
     </row>
     <row r="45" spans="9:15">
       <c r="I45" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="48" t="s">
@@ -11738,7 +11707,7 @@
     </row>
     <row r="46" spans="9:15">
       <c r="I46" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="48"/>
@@ -11779,7 +11748,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="I49" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="48"/>
@@ -11817,19 +11786,19 @@
         <v>103</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="N52" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M52" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N52" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O52" s="68" t="s">
         <v>167</v>
@@ -11878,7 +11847,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="I56" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="48"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04D1B0-FBD1-43AE-B677-10612B99F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4409813-1512-4481-BA1B-1B7B7BF754DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2429,6 +2429,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2446,15 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2763,7 +2763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2802,10 +2802,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="128"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -4106,8 +4106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4135,11 +4135,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
@@ -4216,10 +4216,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4229,7 +4229,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4242,7 +4242,7 @@
       <c r="B13" s="51">
         <v>1140</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
@@ -4255,7 +4255,7 @@
       <c r="B14" s="55">
         <v>1</v>
       </c>
-      <c r="C14" s="136"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="44"/>
       <c r="E14" t="s">
         <v>282</v>
@@ -4664,19 +4664,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5950,19 +5950,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6714,19 +6714,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7328,19 +7328,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7721,12 +7721,12 @@
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -8736,20 +8736,20 @@
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4409813-1512-4481-BA1B-1B7B7BF754DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187F537-CA7F-4850-9CD4-9E1952DC7860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="2655" yWindow="240" windowWidth="25425" windowHeight="14595" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2098,7 +2098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2429,12 +2429,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2763,7 +2757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2773,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2782,7 +2776,7 @@
     <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8" customWidth="1"/>
     <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="3"/>
@@ -2802,10 +2796,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -3191,6 +3185,18 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:A8 A11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3215,6 +3221,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5:D9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -3227,8 +3245,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A8 A11">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3289,30 +3307,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D39">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4106,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4135,11 +4129,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
@@ -4216,10 +4210,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4229,7 +4223,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4242,7 +4236,7 @@
       <c r="B13" s="51">
         <v>1140</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
@@ -4255,7 +4249,7 @@
       <c r="B14" s="55">
         <v>1</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="44"/>
       <c r="E14" t="s">
         <v>282</v>
@@ -4636,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4664,19 +4658,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5927,9 +5921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5950,19 +5944,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6714,19 +6708,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7304,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7328,19 +7322,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7684,7 +7678,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7721,12 +7715,12 @@
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -8736,20 +8730,20 @@
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187F537-CA7F-4850-9CD4-9E1952DC7860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7431F29-9992-4B53-9CF7-A0A57432139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="240" windowWidth="25425" windowHeight="14595" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="3015" yWindow="465" windowWidth="25425" windowHeight="14595" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2767,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5921,9 +5921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6407,7 +6407,9 @@
       <c r="A28" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="50">
+        <v>3</v>
+      </c>
       <c r="C28" s="48"/>
       <c r="D28" s="71"/>
       <c r="G28" s="69" t="s">
@@ -6683,7 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7431F29-9992-4B53-9CF7-A0A57432139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C2EBB-0AD9-4641-94CF-23B607D1AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="465" windowWidth="25425" windowHeight="14595" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="885" yWindow="510" windowWidth="25365" windowHeight="14535" firstSheet="3" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2767,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4100,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C2EBB-0AD9-4641-94CF-23B607D1AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9A9AC0-E652-4492-A10E-1985CC6C33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="510" windowWidth="25365" windowHeight="14535" firstSheet="3" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="180" yWindow="480" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2769,7 +2768,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4102,7 +4101,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4371,7 +4370,9 @@
       <c r="A29" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="51">
+        <v>55</v>
+      </c>
       <c r="C29" s="45" t="s">
         <v>347</v>
       </c>
@@ -4381,7 +4382,9 @@
       <c r="A30" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="51">
+        <v>199</v>
+      </c>
       <c r="C30" s="45" t="s">
         <v>347</v>
       </c>
@@ -4391,7 +4394,9 @@
       <c r="A31" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="51">
+        <v>3.62</v>
+      </c>
       <c r="C31" s="45"/>
       <c r="D31" s="43"/>
     </row>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9A9AC0-E652-4492-A10E-1985CC6C33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD7A88-F34E-4614-B90C-7E8516B107AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="480" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1845" yWindow="195" windowWidth="25365" windowHeight="14535" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2767,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4100,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4637,7 +4637,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD7A88-F34E-4614-B90C-7E8516B107AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ABB3B8-DBBC-4A7B-B613-F97E5E6EEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="195" windowWidth="25365" windowHeight="14535" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1845" yWindow="195" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="418">
   <si>
     <t>UNIT</t>
   </si>
@@ -1460,6 +1460,18 @@
   </si>
   <si>
     <t>date_of_citation</t>
+  </si>
+  <si>
+    <t>Sigma Aldrich</t>
+  </si>
+  <si>
+    <t>Ossila</t>
+  </si>
+  <si>
+    <t>M0311A2</t>
+  </si>
+  <si>
+    <t>s1234</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2429,9 +2441,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2449,6 +2458,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2767,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2796,10 +2811,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -4098,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4129,11 +4144,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
@@ -4210,10 +4225,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4223,7 +4238,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4236,327 +4251,357 @@
       <c r="B13" s="51">
         <v>1140</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="73" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="51">
         <v>1</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="43"/>
       <c r="E14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="121" t="s">
+      <c r="A15" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="134"/>
+      <c r="D16" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A22" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="81"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="69"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="71"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="69"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="72"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="69"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="72"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="69"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="71"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="69"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="72"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="69"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="72"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A27" s="83"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A24" s="113" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A30" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="81" t="s">
+      <c r="B30" s="117"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B31" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C31" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D31" s="41" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="42"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="51" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B27,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="51">
-        <v>55</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="43"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="51">
-        <v>199</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="43"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="51">
-        <v>3.62</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" s="51">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="C32" s="45"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="69"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="123" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="45"/>
+      <c r="A34" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="51" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B33,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+      </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B35" s="51">
+        <v>55</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B36" s="51">
+        <v>199</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="51">
+        <v>3.62</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="51">
+        <v>1</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="69"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="43"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="43" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="99" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="43" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="99" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="43" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A40" s="100" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A46" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="44" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="44" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A42" s="113" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A48" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="81"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="41"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="69"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="42"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="69"/>
-      <c r="B45" s="123"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="69"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="69"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="43"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="69"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="43"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="69"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="43"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="81"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="69"/>
-      <c r="B50" s="51"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="45"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="98"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="45"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="69"/>
@@ -4577,28 +4622,64 @@
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="99"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="99"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="45"/>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="44"/>
-    </row>
-    <row r="92" spans="1:2" ht="26.25">
-      <c r="A92" s="62" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="98"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="69"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="69"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="43"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="69"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="43"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="99"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="99"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="43"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A64" s="100"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="44"/>
+    </row>
+    <row r="98" spans="1:2" ht="26.25">
+      <c r="A98" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B98" s="62" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4618,13 +4699,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B19</xm:sqref>
+          <xm:sqref>B12 B25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B27 B45</xm:sqref>
+          <xm:sqref>B33 B51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4664,19 +4745,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5950,19 +6031,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6716,19 +6797,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7330,19 +7411,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7723,12 +7804,12 @@
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -8738,20 +8819,20 @@
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ABB3B8-DBBC-4A7B-B613-F97E5E6EEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299F8CC-A466-4D82-A246-C4ABC074C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="195" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1995" yWindow="960" windowWidth="25365" windowHeight="14535" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -490,15 +490,6 @@
     <t>Agilent 4155C</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Venkatesh</t>
-  </si>
-  <si>
-    <t>rvenkatesh6@gatech.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1038/srep24476 </t>
   </si>
   <si>
@@ -1472,6 +1463,15 @@
   </si>
   <si>
     <t>s1234</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>aliu319@gatech.edu</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2369,9 +2369,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2459,11 +2456,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2782,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2804,17 +2798,17 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="128"/>
+      <c r="A2" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="127"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2827,8 +2821,8 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="113" t="s">
-        <v>263</v>
+      <c r="A4" s="112" t="s">
+        <v>260</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -2836,76 +2830,76 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="114" t="s">
-        <v>143</v>
+      <c r="A5" s="113" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="114" t="s">
-        <v>144</v>
+      <c r="A6" s="113" t="s">
+        <v>141</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>130</v>
+      <c r="A7" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>417</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="114"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="113" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="114"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="114" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="79"/>
@@ -2914,7 +2908,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="115" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="79"/>
@@ -2923,54 +2917,54 @@
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="117" t="s">
-        <v>299</v>
+      <c r="A14" s="116" t="s">
+        <v>296</v>
       </c>
       <c r="B14" s="102"/>
-      <c r="C14" s="108"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="118"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="115" t="s">
-        <v>148</v>
+      <c r="A18" s="114" t="s">
+        <v>145</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -2978,7 +2972,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="112" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="79"/>
@@ -2986,41 +2980,41 @@
       <c r="D19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="114" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107" t="s">
-        <v>227</v>
+      <c r="A20" s="113" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106" t="s">
+        <v>224</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="114" t="s">
-        <v>394</v>
+      <c r="A21" s="113" t="s">
+        <v>391</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107" t="s">
-        <v>227</v>
+        <v>393</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106" t="s">
+        <v>224</v>
       </c>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="119"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="79"/>
@@ -3028,60 +3022,60 @@
       <c r="D23" s="79"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="120" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
+      <c r="A24" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B27" s="102"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="48" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>22</v>
@@ -3089,92 +3083,92 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B37" s="102"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>23</v>
@@ -3182,12 +3176,12 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="108"/>
+        <v>410</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -3334,9 +3328,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{105FC070-0602-4841-9880-CA819C29ABA6}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{DBC961E3-1290-4610-9CCD-2749E50DBA2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -3401,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3410,24 +3405,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3448,25 +3443,25 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3488,7 +3483,7 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -3511,7 +3506,7 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3534,7 +3529,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -3545,7 +3540,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3554,10 +3549,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3574,10 +3569,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3585,7 +3580,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3597,7 +3592,7 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3605,7 +3600,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23">
         <v>887</v>
@@ -3617,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -3625,7 +3620,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3637,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -3645,7 +3640,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3657,7 +3652,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -3697,12 +3692,12 @@
         <v>31</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -3711,21 +3706,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -3734,22 +3729,22 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3763,16 +3758,16 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3786,13 +3781,13 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3807,10 +3802,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3825,10 +3820,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3839,14 +3834,14 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3861,10 +3856,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3928,10 +3923,10 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -3940,10 +3935,10 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3954,10 +3949,10 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3966,10 +3961,10 @@
         <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H51" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3977,10 +3972,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E52" t="s">
         <v>107</v>
@@ -3994,10 +3989,10 @@
         <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4010,7 +4005,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -4019,24 +4014,24 @@
         <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -4045,24 +4040,24 @@
         <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -4071,38 +4066,38 @@
         <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C61" t="s">
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4130,49 +4125,49 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>285</v>
+        <v>264</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>282</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="95" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
@@ -4192,16 +4187,16 @@
       <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="113" t="s">
-        <v>133</v>
+      <c r="A8" s="112" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="113" t="s">
-        <v>280</v>
+      <c r="A9" s="112" t="s">
+        <v>277</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4209,36 +4204,36 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="134"/>
+        <v>264</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" s="123" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4246,12 +4241,12 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13" s="51">
         <v>1140</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
@@ -4259,77 +4254,77 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" s="51">
         <v>1</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="43"/>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
+        <v>267</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="134"/>
+        <v>411</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="134"/>
+        <v>414</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="D17" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B18" s="51"/>
-      <c r="C18" s="134"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B19" s="51"/>
-      <c r="C19" s="134"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B20" s="55"/>
-      <c r="C20" s="124"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4339,8 +4334,8 @@
       <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A22" s="121" t="s">
-        <v>281</v>
+      <c r="A22" s="120" t="s">
+        <v>278</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -4383,50 +4378,50 @@
       <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="117"/>
+      <c r="A29" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="116"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A30" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="117"/>
+      <c r="A30" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="116"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="B31" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="121" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="123" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="122" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="45"/>
@@ -4434,7 +4429,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B34" s="51" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B33,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4445,31 +4440,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B35" s="51">
         <v>55</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B36" s="51">
         <v>199</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B37" s="51">
         <v>3.62</v>
@@ -4479,7 +4474,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B38" s="51">
         <v>1</v>
@@ -4495,7 +4490,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -4503,66 +4498,66 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="45"/>
       <c r="D43" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="45"/>
       <c r="D44" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="45"/>
       <c r="D45" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B46" s="55"/>
-      <c r="C46" s="124"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4572,8 +4567,8 @@
       <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A48" s="113" t="s">
-        <v>284</v>
+      <c r="A48" s="112" t="s">
+        <v>281</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -4581,8 +4576,8 @@
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="81"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4">
@@ -4593,7 +4588,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
-      <c r="B51" s="123"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="45"/>
       <c r="D51" s="42"/>
     </row>
@@ -4672,15 +4667,15 @@
     <row r="64" spans="1:4" ht="15.75" thickBot="1">
       <c r="A64" s="100"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="124"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="44"/>
     </row>
     <row r="98" spans="1:2" ht="26.25">
       <c r="A98" s="62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B98" s="62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4741,23 +4736,23 @@
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4778,7 +4773,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>71</v>
@@ -4787,7 +4782,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="48"/>
@@ -4798,10 +4793,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="71"/>
@@ -4817,12 +4812,12 @@
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="50">
         <v>1</v>
@@ -4832,27 +4827,27 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="48"/>
       <c r="D7" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -4860,7 +4855,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4869,22 +4864,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="53">
         <v>60</v>
@@ -4893,22 +4888,22 @@
         <v>13</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="H9" s="123"/>
+        <v>326</v>
+      </c>
+      <c r="H9" s="122"/>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B10" s="53">
         <v>1</v>
@@ -4917,37 +4912,37 @@
         <v>81</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="48"/>
       <c r="J10" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="84"/>
       <c r="D11" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
       <c r="J11" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4958,12 +4953,12 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="84"/>
       <c r="J12" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
@@ -4977,7 +4972,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -4988,17 +4983,17 @@
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="71"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>71</v>
@@ -5007,12 +5002,12 @@
         <v>72</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="50">
         <v>2</v>
@@ -5022,29 +5017,29 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -5052,94 +5047,94 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" s="123" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>332</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B18" s="51">
         <v>180</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B19" s="53">
         <v>0.05</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="84"/>
       <c r="D20" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
@@ -5150,12 +5145,12 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="84"/>
       <c r="J21" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -5187,7 +5182,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5198,10 +5193,10 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
@@ -5214,7 +5209,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="48"/>
@@ -5228,12 +5223,12 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H26" s="56"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5244,14 +5239,14 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5262,12 +5257,12 @@
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5278,14 +5273,14 @@
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5296,14 +5291,14 @@
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
       <c r="G30" s="69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5314,14 +5309,14 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5332,14 +5327,14 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -5350,12 +5345,12 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H33" s="54"/>
       <c r="I33" s="84"/>
       <c r="J33" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
@@ -5387,7 +5382,7 @@
         <v>72</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5398,10 +5393,10 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>154</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="71"/>
@@ -5414,7 +5409,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
       <c r="G37" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="48"/>
@@ -5428,12 +5423,12 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H38" s="56"/>
       <c r="I38" s="48"/>
       <c r="J38" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5444,14 +5439,14 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5462,14 +5457,14 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="48" t="s">
         <v>81</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
@@ -5480,12 +5475,12 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
       <c r="G41" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="84"/>
       <c r="J41" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
@@ -5517,7 +5512,7 @@
         <v>72</v>
       </c>
       <c r="J43" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5528,10 +5523,10 @@
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
       <c r="G44" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="71"/>
@@ -5544,7 +5539,7 @@
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
       <c r="G45" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H45" s="50"/>
       <c r="I45" s="48"/>
@@ -5558,12 +5553,12 @@
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
       <c r="G46" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H46" s="56"/>
       <c r="I46" s="48"/>
       <c r="J46" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5574,14 +5569,14 @@
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5592,12 +5587,12 @@
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
       <c r="G48" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="48"/>
       <c r="J48" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5608,14 +5603,14 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="48" t="s">
         <v>82</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5626,32 +5621,32 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1">
       <c r="G51" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="84"/>
       <c r="J51" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5719,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
@@ -5735,7 +5730,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -5743,19 +5738,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" s="49">
         <v>80</v>
@@ -5764,12 +5759,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" s="49">
         <v>1500</v>
@@ -5778,31 +5773,31 @@
         <v>3</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="95" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5813,7 +5808,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -5821,31 +5816,31 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5854,27 +5849,27 @@
         <v>4</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5885,7 +5880,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="96" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -5893,56 +5888,56 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="95" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="95" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="95" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="95"/>
       <c r="D21" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="95"/>
       <c r="D22" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="95"/>
       <c r="D23" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6023,27 +6018,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6065,7 +6060,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>71</v>
@@ -6074,22 +6069,22 @@
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="G6" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>71</v>
@@ -6098,10 +6093,10 @@
         <v>72</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -6109,25 +6104,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="71"/>
       <c r="G8" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -6135,63 +6130,63 @@
       <c r="C9" s="48"/>
       <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" s="53">
         <v>25</v>
@@ -6200,20 +6195,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="84"/>
       <c r="J12" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" s="53">
         <v>15</v>
@@ -6222,7 +6217,7 @@
         <v>110</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G13" s="85"/>
       <c r="H13" s="48"/>
@@ -6231,15 +6226,15 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="84"/>
       <c r="D14" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>71</v>
@@ -6248,7 +6243,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6257,10 +6252,10 @@
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
@@ -6271,7 +6266,7 @@
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -6279,7 +6274,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>71</v>
@@ -6288,40 +6283,40 @@
         <v>72</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="71"/>
       <c r="G18" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48"/>
       <c r="J18" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="50">
         <v>2</v>
@@ -6329,19 +6324,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="71"/>
       <c r="G19" s="69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B20" s="53">
         <v>30</v>
@@ -6350,27 +6345,27 @@
         <v>110</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="84"/>
       <c r="J20" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -6379,17 +6374,17 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H22" s="67" t="s">
         <v>71</v>
@@ -6398,23 +6393,23 @@
         <v>72</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="84"/>
       <c r="D23" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
@@ -6425,7 +6420,7 @@
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
       <c r="G24" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -6437,17 +6432,17 @@
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>71</v>
@@ -6456,30 +6451,30 @@
         <v>72</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="71"/>
       <c r="G27" s="69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6487,12 +6482,12 @@
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="50">
         <v>3</v>
@@ -6500,7 +6495,7 @@
       <c r="C28" s="48"/>
       <c r="D28" s="71"/>
       <c r="G28" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H28" s="53">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6508,54 +6503,54 @@
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="48"/>
       <c r="D29" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B31" s="53" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6563,20 +6558,20 @@
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H31" s="54"/>
       <c r="I31" s="84"/>
       <c r="J31" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B32" s="53">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6584,7 +6579,7 @@
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
@@ -6593,14 +6588,14 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G33" s="81" t="s">
         <v>88</v>
@@ -6612,40 +6607,40 @@
         <v>72</v>
       </c>
       <c r="J33" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1">
       <c r="A35" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="84"/>
       <c r="D35" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="48"/>
@@ -6653,74 +6648,74 @@
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H36" s="53"/>
       <c r="I36" s="48"/>
       <c r="J36" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H37" s="53"/>
       <c r="I37" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H38" s="53"/>
       <c r="I38" s="48" t="s">
         <v>81</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="48"/>
       <c r="J39" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="G40" s="69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H40" s="63"/>
       <c r="I40" s="48"/>
       <c r="J40" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="G41" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="84"/>
       <c r="J41" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6795,21 +6790,21 @@
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6843,7 +6838,7 @@
         <v>72</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
@@ -6855,120 +6850,120 @@
         <v>72</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="71"/>
       <c r="F7" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="48"/>
       <c r="I7" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="86"/>
       <c r="C8" s="48"/>
       <c r="D8" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="48" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="48" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>90</v>
@@ -6976,38 +6971,38 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="48"/>
       <c r="D12" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="48"/>
       <c r="I12" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="74"/>
       <c r="D13" s="87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="74"/>
       <c r="I13" s="87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -7025,59 +7020,59 @@
         <v>27</v>
       </c>
       <c r="I15" s="90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="70" t="s">
         <v>195</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>198</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="71"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="48"/>
       <c r="I17" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="48"/>
       <c r="I19" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="48"/>
       <c r="I20" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>119</v>
@@ -7085,80 +7080,80 @@
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="91" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="48" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
       <c r="I24" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
       <c r="I26" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
       <c r="F27" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="74"/>
       <c r="I27" s="87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
@@ -7176,39 +7171,39 @@
         <v>72</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="6:10">
       <c r="F30" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="71"/>
     </row>
     <row r="31" spans="6:10">
       <c r="F31" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="48"/>
       <c r="I31" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
       <c r="F32" s="73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G32" s="54"/>
       <c r="H32" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
@@ -7219,22 +7214,22 @@
     </row>
     <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="88" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G34" s="89"/>
       <c r="H34" s="89" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="48"/>
@@ -7242,111 +7237,111 @@
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="48"/>
       <c r="I36" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
       <c r="I39" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="6:10">
       <c r="F40" s="69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="48"/>
       <c r="I40" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G42" s="63"/>
       <c r="H42" s="48"/>
       <c r="I42" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="69" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="48"/>
       <c r="I43" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="6:10">
       <c r="F44" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G44" s="63"/>
       <c r="H44" s="48"/>
       <c r="I44" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G45" s="54"/>
       <c r="H45" s="74"/>
       <c r="I45" s="87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7403,27 +7398,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7439,7 +7434,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7452,16 +7447,16 @@
       <c r="C5" s="27"/>
       <c r="D5" s="41"/>
       <c r="G5" s="81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I5" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7469,10 +7464,10 @@
       <c r="B6" s="40"/>
       <c r="D6" s="42"/>
       <c r="G6" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
@@ -7482,7 +7477,7 @@
       <c r="B7" s="50"/>
       <c r="D7" s="42"/>
       <c r="G7" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -7493,12 +7488,12 @@
       <c r="B8" s="56"/>
       <c r="D8" s="43"/>
       <c r="G8" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7506,14 +7501,14 @@
       <c r="B9" s="12"/>
       <c r="D9" s="43"/>
       <c r="G9" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7521,14 +7516,14 @@
       <c r="B10" s="12"/>
       <c r="D10" s="43"/>
       <c r="G10" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -7537,12 +7532,12 @@
       <c r="C11" s="31"/>
       <c r="D11" s="44"/>
       <c r="G11" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H11" s="54"/>
       <c r="I11" s="84"/>
       <c r="J11" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -7553,31 +7548,31 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I13" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="G14" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H14" s="82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48"/>
@@ -7585,56 +7580,56 @@
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="48"/>
       <c r="J16" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="84"/>
       <c r="J20" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -7648,28 +7643,28 @@
         <v>88</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -7677,62 +7672,62 @@
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
       <c r="G29" s="83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="84"/>
       <c r="J29" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7786,34 +7781,34 @@
         <v>94</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="G1" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="13"/>
       <c r="G2" s="3"/>
@@ -7827,7 +7822,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="3"/>
@@ -7835,7 +7830,7 @@
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4" s="2"/>
       <c r="G4" s="33"/>
@@ -7846,51 +7841,51 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="I5" s="76" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O5" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="G6" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -7901,7 +7896,7 @@
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -7911,10 +7906,10 @@
       <c r="G7" s="72"/>
       <c r="H7" s="3"/>
       <c r="I7" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7924,10 +7919,10 @@
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7936,7 +7931,7 @@
       <c r="G8" s="71"/>
       <c r="H8" s="3"/>
       <c r="I8" s="69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="48"/>
@@ -7944,12 +7939,12 @@
       <c r="M8" s="48"/>
       <c r="N8" s="79"/>
       <c r="O8" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
@@ -7957,34 +7952,34 @@
       <c r="E9" s="48"/>
       <c r="F9" s="79"/>
       <c r="G9" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="127" t="s">
-        <v>218</v>
+      <c r="I9" s="126" t="s">
+        <v>215</v>
       </c>
       <c r="J9" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
       <c r="O9" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="127" t="s">
-        <v>218</v>
+      <c r="A10" s="126" t="s">
+        <v>215</v>
       </c>
       <c r="B10" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" s="49">
         <v>12</v>
@@ -7993,13 +7988,13 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G10" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="80" t="s">
         <v>225</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>228</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>126</v>
@@ -8009,12 +8004,12 @@
       <c r="M10" s="79"/>
       <c r="N10" s="79"/>
       <c r="O10" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>126</v>
@@ -8024,11 +8019,11 @@
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
       <c r="G11" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="127" t="s">
-        <v>386</v>
+      <c r="I11" s="126" t="s">
+        <v>383</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
@@ -8036,12 +8031,12 @@
       <c r="M11" s="49"/>
       <c r="N11" s="50"/>
       <c r="O11" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="127" t="s">
-        <v>386</v>
+      <c r="A12" s="126" t="s">
+        <v>383</v>
       </c>
       <c r="B12" s="53">
         <v>2.5</v>
@@ -8054,14 +8049,14 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="69" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="48"/>
@@ -8069,12 +8064,12 @@
       <c r="M12" s="49"/>
       <c r="N12" s="50"/>
       <c r="O12" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="48"/>
@@ -8082,11 +8077,11 @@
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="G13" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="48" t="s">
@@ -8096,12 +8091,12 @@
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -8111,7 +8106,7 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I14" s="69"/>
       <c r="J14" s="48"/>
@@ -8130,7 +8125,7 @@
       <c r="F15" s="48"/>
       <c r="G15" s="72"/>
       <c r="I15" s="78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -8141,7 +8136,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -8151,36 +8146,36 @@
       <c r="G16" s="72"/>
       <c r="H16" s="3"/>
       <c r="I16" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="48" t="s">
@@ -8190,12 +8185,12 @@
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
@@ -8205,10 +8200,10 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J18" s="53">
         <v>-3</v>
@@ -8220,12 +8215,12 @@
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B19" s="53">
         <v>-3</v>
@@ -8237,11 +8232,11 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="48" t="s">
@@ -8251,12 +8246,12 @@
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -8266,13 +8261,13 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>127</v>
@@ -8282,12 +8277,12 @@
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>127</v>
@@ -8297,11 +8292,11 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="48"/>
@@ -8309,12 +8304,12 @@
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
@@ -8322,10 +8317,10 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I22" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="48"/>
@@ -8333,12 +8328,12 @@
       <c r="M22" s="48"/>
       <c r="N22" s="48"/>
       <c r="O22" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="48"/>
@@ -8346,10 +8341,10 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J23" s="63"/>
       <c r="K23" s="48"/>
@@ -8357,12 +8352,12 @@
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
       <c r="O23" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="48"/>
@@ -8370,13 +8365,13 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="48"/>
@@ -8384,12 +8379,12 @@
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
       <c r="O24" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8397,10 +8392,10 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J25" s="54"/>
       <c r="K25" s="74"/>
@@ -8408,12 +8403,12 @@
       <c r="M25" s="74"/>
       <c r="N25" s="74"/>
       <c r="O25" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="74"/>
@@ -8421,7 +8416,7 @@
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
       <c r="G26" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -8675,10 +8670,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -8799,40 +8794,40 @@
   <sheetData>
     <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="G1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="128" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8844,7 +8839,7 @@
     </row>
     <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -8852,7 +8847,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="I3" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="3"/>
@@ -8877,44 +8872,44 @@
         <v>97</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="G5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="66" t="s">
         <v>97</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O5" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T5"/>
       <c r="AB5"/>
@@ -10965,10 +10960,10 @@
     </row>
     <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A6" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -10976,10 +10971,10 @@
       <c r="F6" s="48"/>
       <c r="G6" s="71"/>
       <c r="I6" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -10989,20 +10984,20 @@
     </row>
     <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A7" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J7" s="49"/>
       <c r="K7" s="48"/>
@@ -11010,12 +11005,12 @@
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A8" s="69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" s="49">
         <v>0.54</v>
@@ -11025,10 +11020,10 @@
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
       <c r="G8" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="48"/>
@@ -11036,12 +11031,12 @@
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
       <c r="O8" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A9" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B9" s="49">
         <v>50</v>
@@ -11053,10 +11048,10 @@
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
       <c r="G9" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="48" t="s">
@@ -11066,12 +11061,12 @@
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
       <c r="O9" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A10" s="69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="48"/>
@@ -11079,10 +11074,10 @@
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="G10" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="48"/>
@@ -11090,12 +11085,12 @@
       <c r="M10" s="49"/>
       <c r="N10" s="50"/>
       <c r="O10" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -11103,10 +11098,10 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48"/>
@@ -11114,12 +11109,12 @@
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
       <c r="O11" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="74"/>
@@ -11127,10 +11122,10 @@
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="74"/>
@@ -11138,7 +11133,7 @@
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
       <c r="O12" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
@@ -11162,22 +11157,22 @@
         <v>101</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="G14" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -11189,10 +11184,10 @@
     </row>
     <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="A15" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -11203,27 +11198,27 @@
         <v>98</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L15" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O15" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A16" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
@@ -11231,13 +11226,13 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -11247,7 +11242,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11259,10 +11254,10 @@
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
       <c r="G17" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="48"/>
@@ -11270,12 +11265,12 @@
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11283,10 +11278,10 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
       <c r="G18" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
@@ -11294,12 +11289,12 @@
       <c r="M18" s="49"/>
       <c r="N18" s="50"/>
       <c r="O18" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11309,10 +11304,10 @@
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="48" t="s">
@@ -11322,12 +11317,12 @@
       <c r="M19" s="49"/>
       <c r="N19" s="50"/>
       <c r="O19" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="69" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11335,10 +11330,10 @@
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48"/>
@@ -11346,12 +11341,12 @@
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11361,10 +11356,10 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J21" s="64"/>
       <c r="K21" s="74"/>
@@ -11372,12 +11367,12 @@
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11385,7 +11380,7 @@
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -11397,7 +11392,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11407,7 +11402,7 @@
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
       <c r="G23" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -11419,7 +11414,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11427,33 +11422,33 @@
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="66" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N24" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L24" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O24" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="48" t="s">
@@ -11463,13 +11458,13 @@
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
       <c r="G25" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I25" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
@@ -11479,7 +11474,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -11487,10 +11482,10 @@
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
       <c r="G26" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I26" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="48"/>
@@ -11498,12 +11493,12 @@
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
       <c r="O26" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11511,10 +11506,10 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I27" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="48" t="s">
@@ -11524,12 +11519,12 @@
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="74"/>
@@ -11537,10 +11532,10 @@
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I28" s="69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
@@ -11548,12 +11543,12 @@
       <c r="M28" s="49"/>
       <c r="N28" s="50"/>
       <c r="O28" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="I29" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="48" t="s">
@@ -11563,12 +11558,12 @@
       <c r="M29" s="49"/>
       <c r="N29" s="50"/>
       <c r="O29" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="I30" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J30" s="65"/>
       <c r="K30" s="48" t="s">
@@ -11578,12 +11573,12 @@
       <c r="M30" s="49"/>
       <c r="N30" s="50"/>
       <c r="O30" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="I31" s="69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J31" s="65"/>
       <c r="K31" s="48" t="s">
@@ -11593,12 +11588,12 @@
       <c r="M31" s="49"/>
       <c r="N31" s="50"/>
       <c r="O31" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="I32" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48"/>
@@ -11606,12 +11601,12 @@
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
       <c r="O32" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="9:15" ht="15.75" thickBot="1">
       <c r="I33" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J33" s="64"/>
       <c r="K33" s="74"/>
@@ -11619,7 +11614,7 @@
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
       <c r="O33" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="9:15">
@@ -11645,30 +11640,30 @@
         <v>101</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M36" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N36" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L36" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M36" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N36" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O36" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="9:15">
       <c r="I37" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J37" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="48"/>
@@ -11678,7 +11673,7 @@
     </row>
     <row r="38" spans="9:15">
       <c r="I38" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J38" s="49"/>
       <c r="K38" s="48"/>
@@ -11686,12 +11681,12 @@
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
       <c r="O38" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="69" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="48" t="s">
@@ -11701,12 +11696,12 @@
       <c r="M39" s="49"/>
       <c r="N39" s="50"/>
       <c r="O39" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="9:15">
       <c r="I40" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="48"/>
@@ -11714,12 +11709,12 @@
       <c r="M40" s="49"/>
       <c r="N40" s="50"/>
       <c r="O40" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="9:15">
       <c r="I41" s="69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="48" t="s">
@@ -11729,12 +11724,12 @@
       <c r="M41" s="49"/>
       <c r="N41" s="50"/>
       <c r="O41" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="9:15">
       <c r="I42" s="69" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="48"/>
@@ -11742,12 +11737,12 @@
       <c r="M42" s="49"/>
       <c r="N42" s="50"/>
       <c r="O42" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="9:15">
       <c r="I43" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="48" t="s">
@@ -11757,12 +11752,12 @@
       <c r="M43" s="49"/>
       <c r="N43" s="50"/>
       <c r="O43" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="9:15">
       <c r="I44" s="69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="48"/>
@@ -11770,12 +11765,12 @@
       <c r="M44" s="49"/>
       <c r="N44" s="50"/>
       <c r="O44" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="9:15">
       <c r="I45" s="69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="48" t="s">
@@ -11785,12 +11780,12 @@
       <c r="M45" s="49"/>
       <c r="N45" s="50"/>
       <c r="O45" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="9:15">
       <c r="I46" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="48"/>
@@ -11798,12 +11793,12 @@
       <c r="M46" s="49"/>
       <c r="N46" s="50"/>
       <c r="O46" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="9:15">
       <c r="I47" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J47" s="49"/>
       <c r="K47" s="48" t="s">
@@ -11813,12 +11808,12 @@
       <c r="M47" s="49"/>
       <c r="N47" s="50"/>
       <c r="O47" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="9:15">
       <c r="I48" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J48" s="49"/>
       <c r="K48" s="48"/>
@@ -11826,12 +11821,12 @@
       <c r="M48" s="49"/>
       <c r="N48" s="50"/>
       <c r="O48" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="I49" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="48"/>
@@ -11839,12 +11834,12 @@
       <c r="M49" s="48"/>
       <c r="N49" s="48"/>
       <c r="O49" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="I50" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="74"/>
@@ -11852,7 +11847,7 @@
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
       <c r="O50" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
@@ -11869,30 +11864,30 @@
         <v>103</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M52" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="N52" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="L52" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="M52" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="N52" s="67" t="s">
-        <v>392</v>
-      </c>
       <c r="O52" s="68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="I53" s="69" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J53" s="70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K53" s="48"/>
       <c r="L53" s="48"/>
@@ -11902,7 +11897,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="I54" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J54" s="49"/>
       <c r="K54" s="48"/>
@@ -11910,12 +11905,12 @@
       <c r="M54" s="48"/>
       <c r="N54" s="48"/>
       <c r="O54" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="I55" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="48" t="s">
@@ -11925,12 +11920,12 @@
       <c r="M55" s="49"/>
       <c r="N55" s="50"/>
       <c r="O55" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="I56" s="69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="48"/>
@@ -11938,12 +11933,12 @@
       <c r="M56" s="48"/>
       <c r="N56" s="48"/>
       <c r="O56" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="I57" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J57" s="64"/>
       <c r="K57" s="74"/>
@@ -11951,7 +11946,7 @@
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
       <c r="O57" s="75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -12005,10 +12000,10 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299F8CC-A466-4D82-A246-C4ABC074C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE85335-AC34-41C6-B2E7-9FB7311639FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="960" windowWidth="25365" windowHeight="14535" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1245" yWindow="510" windowWidth="25365" windowHeight="14535" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="417">
   <si>
     <t>UNIT</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>day</t>
-  </si>
-  <si>
-    <t>Instructions: Fill out the available information. Leave blank if not available or applicable</t>
   </si>
   <si>
     <t>Electrode - Adhesion Layer</t>
@@ -2438,6 +2435,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2455,9 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2776,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2798,17 +2795,17 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="127" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="127"/>
+      <c r="A2" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -2831,14 +2828,14 @@
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -2846,26 +2843,26 @@
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>417</v>
+        <v>141</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>416</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
@@ -2876,7 +2873,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="104"/>
@@ -2884,10 +2881,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
@@ -2918,12 +2915,12 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="107"/>
       <c r="D14" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -2931,28 +2928,28 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="107"/>
       <c r="D15" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="117" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="107"/>
       <c r="D16" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2964,7 +2961,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -2981,14 +2978,14 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="106"/>
       <c r="D20" s="106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>58</v>
@@ -2996,14 +2993,14 @@
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="113" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="109"/>
       <c r="C24" s="109"/>
@@ -3037,45 +3034,45 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="102"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>22</v>
@@ -3083,92 +3080,92 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" s="102"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>23</v>
@@ -3176,12 +3173,12 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B39" s="111"/>
       <c r="C39" s="107"/>
       <c r="D39" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -3396,7 +3393,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3405,24 +3402,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3443,25 +3440,25 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3483,7 +3480,7 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -3506,7 +3503,7 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3529,7 +3526,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3549,10 +3546,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3569,10 +3566,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3592,7 +3589,7 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>887</v>
@@ -3612,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3632,7 +3629,7 @@
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3652,7 +3649,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -3677,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>9</v>
@@ -3692,12 +3689,12 @@
         <v>31</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -3706,21 +3703,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -3729,22 +3726,22 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3758,16 +3755,16 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3781,13 +3778,13 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3802,10 +3799,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3820,10 +3817,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3834,14 +3831,14 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3856,10 +3853,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3904,10 +3901,10 @@
         <v>108</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3917,16 +3914,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -3935,24 +3932,24 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3961,10 +3958,10 @@
         <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3972,10 +3969,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
         <v>306</v>
-      </c>
-      <c r="D52" t="s">
-        <v>307</v>
       </c>
       <c r="E52" t="s">
         <v>107</v>
@@ -3986,13 +3983,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4005,99 +4002,99 @@
         <v>28</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4125,49 +4122,49 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="125" t="s">
         <v>283</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>284</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4196,7 +4193,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4204,7 +4201,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="121" t="s">
         <v>71</v>
@@ -4213,22 +4210,22 @@
         <v>72</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="122" t="s">
         <v>65</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="51">
         <v>1140</v>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="51">
         <v>1</v>
@@ -4262,12 +4259,12 @@
       <c r="C14" s="45"/>
       <c r="D14" s="43"/>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -4275,56 +4272,56 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="45"/>
       <c r="D18" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="45"/>
       <c r="D19" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="123"/>
       <c r="D20" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4335,7 +4332,7 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1">
       <c r="A22" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -4379,7 +4376,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="116"/>
       <c r="C29" s="48"/>
@@ -4387,7 +4384,7 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1">
       <c r="A30" s="112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="116"/>
       <c r="C30" s="48"/>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="121" t="s">
         <v>71</v>
@@ -4404,22 +4401,22 @@
         <v>72</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="122" t="s">
         <v>62</v>
@@ -4429,7 +4426,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" s="51" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B33,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4440,31 +4437,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" s="51">
         <v>55</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" s="51">
         <v>199</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" s="51">
         <v>3.62</v>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" s="51">
         <v>1</v>
@@ -4490,7 +4487,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -4498,66 +4495,66 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="45"/>
       <c r="D43" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="45"/>
       <c r="D44" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="45"/>
       <c r="D45" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="123"/>
       <c r="D46" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4568,7 +4565,7 @@
     </row>
     <row r="48" spans="1:4" ht="16.5" thickBot="1">
       <c r="A48" s="112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -4672,10 +4669,10 @@
     </row>
     <row r="98" spans="1:2" ht="26.25">
       <c r="A98" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
@@ -4736,23 +4733,23 @@
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4773,7 +4770,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>71</v>
@@ -4782,7 +4779,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="48"/>
@@ -4793,10 +4790,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="71"/>
@@ -4812,12 +4809,12 @@
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="50">
         <v>1</v>
@@ -4827,27 +4824,27 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="48"/>
       <c r="D7" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4864,22 +4861,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="53">
         <v>60</v>
@@ -4888,22 +4885,22 @@
         <v>13</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" s="122"/>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="53">
         <v>1</v>
@@ -4912,37 +4909,37 @@
         <v>81</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="48"/>
       <c r="J10" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="84"/>
       <c r="D11" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
       <c r="J11" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4953,12 +4950,12 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="84"/>
       <c r="J12" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
@@ -4972,7 +4969,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -4983,17 +4980,17 @@
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="71"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>71</v>
@@ -5002,12 +4999,12 @@
         <v>72</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="50">
         <v>2</v>
@@ -5017,29 +5014,29 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -5047,94 +5044,94 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="51">
         <v>180</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B19" s="53">
         <v>0.05</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="84"/>
       <c r="D20" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
@@ -5145,12 +5142,12 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="84"/>
       <c r="J21" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -5182,7 +5179,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5193,10 +5190,10 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="82" t="s">
         <v>148</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>149</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
@@ -5209,7 +5206,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="48"/>
@@ -5223,12 +5220,12 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H26" s="56"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5239,14 +5236,14 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5257,12 +5254,12 @@
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5273,14 +5270,14 @@
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5291,14 +5288,14 @@
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
       <c r="G30" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5309,14 +5306,14 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5327,14 +5324,14 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -5345,12 +5342,12 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H33" s="54"/>
       <c r="I33" s="84"/>
       <c r="J33" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
@@ -5382,7 +5379,7 @@
         <v>72</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5393,10 +5390,10 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="71"/>
@@ -5409,7 +5406,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
       <c r="G37" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="48"/>
@@ -5423,12 +5420,12 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H38" s="56"/>
       <c r="I38" s="48"/>
       <c r="J38" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5439,14 +5436,14 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5457,14 +5454,14 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="48" t="s">
         <v>81</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
@@ -5475,12 +5472,12 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
       <c r="G41" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="84"/>
       <c r="J41" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
@@ -5512,7 +5509,7 @@
         <v>72</v>
       </c>
       <c r="J43" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5523,10 +5520,10 @@
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
       <c r="G44" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="71"/>
@@ -5539,7 +5536,7 @@
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
       <c r="G45" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H45" s="50"/>
       <c r="I45" s="48"/>
@@ -5553,12 +5550,12 @@
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
       <c r="G46" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="56"/>
       <c r="I46" s="48"/>
       <c r="J46" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5569,14 +5566,14 @@
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5587,12 +5584,12 @@
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
       <c r="G48" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="48"/>
       <c r="J48" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5603,14 +5600,14 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="48" t="s">
         <v>82</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5621,32 +5618,32 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1">
       <c r="G51" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="84"/>
       <c r="J51" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5693,8 +5690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5714,15 +5711,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="10" t="s">
-        <v>112</v>
+      <c r="A2" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -5730,7 +5727,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -5738,19 +5735,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="49">
         <v>80</v>
@@ -5759,12 +5756,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="49">
         <v>1500</v>
@@ -5773,31 +5770,31 @@
         <v>3</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5808,7 +5805,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -5816,31 +5813,31 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5849,27 +5846,27 @@
         <v>4</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5880,7 +5877,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -5888,56 +5885,56 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="95" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="95" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="95"/>
       <c r="D21" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="95"/>
       <c r="D22" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="95"/>
       <c r="D23" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6005,7 +6002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6018,27 +6015,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>71</v>
@@ -6069,22 +6066,22 @@
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="G6" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>71</v>
@@ -6093,10 +6090,10 @@
         <v>72</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -6104,25 +6101,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="71"/>
       <c r="G8" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -6130,63 +6127,63 @@
       <c r="C9" s="48"/>
       <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="53">
         <v>25</v>
@@ -6195,20 +6192,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="84"/>
       <c r="J12" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="53">
         <v>15</v>
@@ -6217,7 +6214,7 @@
         <v>110</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="85"/>
       <c r="H13" s="48"/>
@@ -6226,15 +6223,15 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="84"/>
       <c r="D14" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>71</v>
@@ -6243,7 +6240,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6252,10 +6249,10 @@
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
@@ -6266,7 +6263,7 @@
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -6274,7 +6271,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>71</v>
@@ -6283,40 +6280,40 @@
         <v>72</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="71"/>
       <c r="G18" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48"/>
       <c r="J18" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="50">
         <v>2</v>
@@ -6324,19 +6321,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="71"/>
       <c r="G19" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="53">
         <v>30</v>
@@ -6345,27 +6342,27 @@
         <v>110</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="84"/>
       <c r="J20" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -6374,17 +6371,17 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="67" t="s">
         <v>71</v>
@@ -6393,23 +6390,23 @@
         <v>72</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="84"/>
       <c r="D23" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
@@ -6420,7 +6417,7 @@
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
       <c r="G24" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -6432,17 +6429,17 @@
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>71</v>
@@ -6451,30 +6448,30 @@
         <v>72</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="71"/>
       <c r="G27" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6482,12 +6479,12 @@
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="50">
         <v>3</v>
@@ -6495,7 +6492,7 @@
       <c r="C28" s="48"/>
       <c r="D28" s="71"/>
       <c r="G28" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" s="53">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6503,54 +6500,54 @@
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="48"/>
       <c r="D29" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" s="53" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6558,20 +6555,20 @@
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="54"/>
       <c r="I31" s="84"/>
       <c r="J31" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="53">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6579,7 +6576,7 @@
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
@@ -6588,14 +6585,14 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="81" t="s">
         <v>88</v>
@@ -6607,40 +6604,40 @@
         <v>72</v>
       </c>
       <c r="J33" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1">
       <c r="A35" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="84"/>
       <c r="D35" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="48"/>
@@ -6648,74 +6645,74 @@
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H36" s="53"/>
       <c r="I36" s="48"/>
       <c r="J36" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H37" s="53"/>
       <c r="I37" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H38" s="53"/>
       <c r="I38" s="48" t="s">
         <v>81</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="48"/>
       <c r="J39" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="G40" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H40" s="63"/>
       <c r="I40" s="48"/>
       <c r="J40" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="G41" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="84"/>
       <c r="J41" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6790,21 +6787,21 @@
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6838,7 +6835,7 @@
         <v>72</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
@@ -6850,120 +6847,120 @@
         <v>72</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>192</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>193</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>192</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>193</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="71"/>
       <c r="F7" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="48"/>
       <c r="I7" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="86"/>
       <c r="C8" s="48"/>
       <c r="D8" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="48" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="48" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>90</v>
@@ -6971,38 +6968,38 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="48"/>
       <c r="D12" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="48"/>
       <c r="I12" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="74"/>
       <c r="D13" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="74"/>
       <c r="I13" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -7020,140 +7017,140 @@
         <v>27</v>
       </c>
       <c r="I15" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="71"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="48"/>
       <c r="I17" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="48"/>
       <c r="I19" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="48"/>
       <c r="I20" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="91" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="48" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
       <c r="I24" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
       <c r="I26" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
       <c r="F27" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="74"/>
       <c r="I27" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
@@ -7171,39 +7168,39 @@
         <v>72</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="6:10">
       <c r="F30" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="71"/>
     </row>
     <row r="31" spans="6:10">
       <c r="F31" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="48"/>
       <c r="I31" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
       <c r="F32" s="73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" s="54"/>
       <c r="H32" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
@@ -7214,22 +7211,22 @@
     </row>
     <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G34" s="89"/>
       <c r="H34" s="89" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="48"/>
@@ -7237,111 +7234,111 @@
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="48"/>
       <c r="I36" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
       <c r="I39" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="6:10">
       <c r="F40" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="48"/>
       <c r="I40" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G42" s="63"/>
       <c r="H42" s="48"/>
       <c r="I42" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="48"/>
       <c r="I43" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="6:10">
       <c r="F44" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G44" s="63"/>
       <c r="H44" s="48"/>
       <c r="I44" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G45" s="54"/>
       <c r="H45" s="74"/>
       <c r="I45" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7382,7 +7379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7398,27 +7395,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7434,7 +7431,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7447,16 +7444,16 @@
       <c r="C5" s="27"/>
       <c r="D5" s="41"/>
       <c r="G5" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7464,10 +7461,10 @@
       <c r="B6" s="40"/>
       <c r="D6" s="42"/>
       <c r="G6" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
@@ -7477,7 +7474,7 @@
       <c r="B7" s="50"/>
       <c r="D7" s="42"/>
       <c r="G7" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -7488,12 +7485,12 @@
       <c r="B8" s="56"/>
       <c r="D8" s="43"/>
       <c r="G8" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7501,14 +7498,14 @@
       <c r="B9" s="12"/>
       <c r="D9" s="43"/>
       <c r="G9" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7516,14 +7513,14 @@
       <c r="B10" s="12"/>
       <c r="D10" s="43"/>
       <c r="G10" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -7532,12 +7529,12 @@
       <c r="C11" s="31"/>
       <c r="D11" s="44"/>
       <c r="G11" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="54"/>
       <c r="I11" s="84"/>
       <c r="J11" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -7548,31 +7545,31 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I13" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="G14" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48"/>
@@ -7580,56 +7577,56 @@
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="48"/>
       <c r="J16" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>110</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="84"/>
       <c r="J20" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -7643,28 +7640,28 @@
         <v>88</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -7672,62 +7669,62 @@
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
       <c r="G29" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="84"/>
       <c r="J29" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7781,34 +7778,34 @@
         <v>94</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="G1" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="13"/>
       <c r="G2" s="3"/>
@@ -7822,7 +7819,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="3"/>
@@ -7830,7 +7827,7 @@
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2"/>
       <c r="G4" s="33"/>
@@ -7841,51 +7838,51 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="I5" s="76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="M5" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N5" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O5" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="E6" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="F6" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F6" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="G6" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -7896,7 +7893,7 @@
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -7906,10 +7903,10 @@
       <c r="G7" s="72"/>
       <c r="H7" s="3"/>
       <c r="I7" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7919,10 +7916,10 @@
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7931,7 +7928,7 @@
       <c r="G8" s="71"/>
       <c r="H8" s="3"/>
       <c r="I8" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="48"/>
@@ -7939,12 +7936,12 @@
       <c r="M8" s="48"/>
       <c r="N8" s="79"/>
       <c r="O8" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
@@ -7952,34 +7949,34 @@
       <c r="E9" s="48"/>
       <c r="F9" s="79"/>
       <c r="G9" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J9" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
       <c r="O9" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A10" s="126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="49">
         <v>12</v>
@@ -7988,42 +7985,42 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="79"/>
       <c r="L10" s="79"/>
       <c r="M10" s="79"/>
       <c r="N10" s="79"/>
       <c r="O10" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
       <c r="G11" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="126" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
@@ -8031,12 +8028,12 @@
       <c r="M11" s="49"/>
       <c r="N11" s="50"/>
       <c r="O11" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="53">
         <v>2.5</v>
@@ -8049,14 +8046,14 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="48"/>
@@ -8064,12 +8061,12 @@
       <c r="M12" s="49"/>
       <c r="N12" s="50"/>
       <c r="O12" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="48"/>
@@ -8077,11 +8074,11 @@
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="G13" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="48" t="s">
@@ -8091,12 +8088,12 @@
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -8106,7 +8103,7 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I14" s="69"/>
       <c r="J14" s="48"/>
@@ -8125,7 +8122,7 @@
       <c r="F15" s="48"/>
       <c r="G15" s="72"/>
       <c r="I15" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -8136,7 +8133,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -8146,36 +8143,36 @@
       <c r="G16" s="72"/>
       <c r="H16" s="3"/>
       <c r="I16" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="48" t="s">
@@ -8185,12 +8182,12 @@
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
@@ -8200,10 +8197,10 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J18" s="53">
         <v>-3</v>
@@ -8215,12 +8212,12 @@
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="53">
         <v>-3</v>
@@ -8232,11 +8229,11 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="48" t="s">
@@ -8246,12 +8243,12 @@
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -8261,42 +8258,42 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="48"/>
@@ -8304,12 +8301,12 @@
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
@@ -8317,10 +8314,10 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I22" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="48"/>
@@ -8328,12 +8325,12 @@
       <c r="M22" s="48"/>
       <c r="N22" s="48"/>
       <c r="O22" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="48"/>
@@ -8341,10 +8338,10 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J23" s="63"/>
       <c r="K23" s="48"/>
@@ -8352,12 +8349,12 @@
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
       <c r="O23" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="48"/>
@@ -8365,13 +8362,13 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="48"/>
@@ -8379,12 +8376,12 @@
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
       <c r="O24" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8392,10 +8389,10 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J25" s="54"/>
       <c r="K25" s="74"/>
@@ -8403,12 +8400,12 @@
       <c r="M25" s="74"/>
       <c r="N25" s="74"/>
       <c r="O25" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="74"/>
@@ -8416,7 +8413,7 @@
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
       <c r="G26" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -8670,10 +8667,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -8794,40 +8791,40 @@
   <sheetData>
     <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="127" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="128" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8839,7 +8836,7 @@
     </row>
     <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -8847,7 +8844,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="I3" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="3"/>
@@ -8872,44 +8869,44 @@
         <v>97</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="E5" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="F5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="G5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="66" t="s">
         <v>97</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="M5" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N5" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O5" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T5"/>
       <c r="AB5"/>
@@ -10960,10 +10957,10 @@
     </row>
     <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A6" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -10971,10 +10968,10 @@
       <c r="F6" s="48"/>
       <c r="G6" s="71"/>
       <c r="I6" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -10984,20 +10981,20 @@
     </row>
     <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A7" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J7" s="49"/>
       <c r="K7" s="48"/>
@@ -11005,12 +11002,12 @@
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A8" s="69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="49">
         <v>0.54</v>
@@ -11020,10 +11017,10 @@
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
       <c r="G8" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="48"/>
@@ -11031,12 +11028,12 @@
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
       <c r="O8" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A9" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="49">
         <v>50</v>
@@ -11048,10 +11045,10 @@
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
       <c r="G9" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="48" t="s">
@@ -11061,12 +11058,12 @@
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
       <c r="O9" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A10" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="48"/>
@@ -11074,10 +11071,10 @@
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="G10" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="48"/>
@@ -11085,12 +11082,12 @@
       <c r="M10" s="49"/>
       <c r="N10" s="50"/>
       <c r="O10" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -11098,10 +11095,10 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48"/>
@@ -11109,12 +11106,12 @@
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
       <c r="O11" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="74"/>
@@ -11122,10 +11119,10 @@
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="74"/>
@@ -11133,7 +11130,7 @@
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
       <c r="O12" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
@@ -11157,22 +11154,22 @@
         <v>101</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="E14" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="F14" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="G14" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -11184,10 +11181,10 @@
     </row>
     <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="A15" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -11198,27 +11195,27 @@
         <v>98</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="M15" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="N15" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N15" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O15" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A16" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
@@ -11226,13 +11223,13 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -11242,7 +11239,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11254,10 +11251,10 @@
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
       <c r="G17" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="48"/>
@@ -11265,12 +11262,12 @@
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11278,10 +11275,10 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
       <c r="G18" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
@@ -11289,12 +11286,12 @@
       <c r="M18" s="49"/>
       <c r="N18" s="50"/>
       <c r="O18" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11304,10 +11301,10 @@
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="48" t="s">
@@ -11317,12 +11314,12 @@
       <c r="M19" s="49"/>
       <c r="N19" s="50"/>
       <c r="O19" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11330,10 +11327,10 @@
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48"/>
@@ -11341,12 +11338,12 @@
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11356,10 +11353,10 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J21" s="64"/>
       <c r="K21" s="74"/>
@@ -11367,12 +11364,12 @@
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11380,7 +11377,7 @@
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -11392,7 +11389,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11402,7 +11399,7 @@
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
       <c r="G23" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -11414,7 +11411,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11422,33 +11419,33 @@
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I24" s="66" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L24" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="M24" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="N24" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N24" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O24" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="48" t="s">
@@ -11458,13 +11455,13 @@
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
       <c r="G25" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I25" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
@@ -11474,7 +11471,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -11482,10 +11479,10 @@
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
       <c r="G26" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I26" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="48"/>
@@ -11493,12 +11490,12 @@
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
       <c r="O26" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11506,10 +11503,10 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I27" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="48" t="s">
@@ -11519,12 +11516,12 @@
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="74"/>
@@ -11532,10 +11529,10 @@
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I28" s="69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
@@ -11543,12 +11540,12 @@
       <c r="M28" s="49"/>
       <c r="N28" s="50"/>
       <c r="O28" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="I29" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="48" t="s">
@@ -11558,12 +11555,12 @@
       <c r="M29" s="49"/>
       <c r="N29" s="50"/>
       <c r="O29" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="I30" s="69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J30" s="65"/>
       <c r="K30" s="48" t="s">
@@ -11573,12 +11570,12 @@
       <c r="M30" s="49"/>
       <c r="N30" s="50"/>
       <c r="O30" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="I31" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J31" s="65"/>
       <c r="K31" s="48" t="s">
@@ -11588,12 +11585,12 @@
       <c r="M31" s="49"/>
       <c r="N31" s="50"/>
       <c r="O31" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="I32" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48"/>
@@ -11601,12 +11598,12 @@
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
       <c r="O32" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="9:15" ht="15.75" thickBot="1">
       <c r="I33" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J33" s="64"/>
       <c r="K33" s="74"/>
@@ -11614,7 +11611,7 @@
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
       <c r="O33" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="9:15">
@@ -11640,30 +11637,30 @@
         <v>101</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L36" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="M36" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M36" s="67" t="s">
+      <c r="N36" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N36" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O36" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="9:15">
       <c r="I37" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="48"/>
@@ -11673,7 +11670,7 @@
     </row>
     <row r="38" spans="9:15">
       <c r="I38" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J38" s="49"/>
       <c r="K38" s="48"/>
@@ -11681,12 +11678,12 @@
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
       <c r="O38" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="48" t="s">
@@ -11696,12 +11693,12 @@
       <c r="M39" s="49"/>
       <c r="N39" s="50"/>
       <c r="O39" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="9:15">
       <c r="I40" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="48"/>
@@ -11709,12 +11706,12 @@
       <c r="M40" s="49"/>
       <c r="N40" s="50"/>
       <c r="O40" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="9:15">
       <c r="I41" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="48" t="s">
@@ -11724,12 +11721,12 @@
       <c r="M41" s="49"/>
       <c r="N41" s="50"/>
       <c r="O41" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="9:15">
       <c r="I42" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="48"/>
@@ -11737,12 +11734,12 @@
       <c r="M42" s="49"/>
       <c r="N42" s="50"/>
       <c r="O42" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="9:15">
       <c r="I43" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="48" t="s">
@@ -11752,12 +11749,12 @@
       <c r="M43" s="49"/>
       <c r="N43" s="50"/>
       <c r="O43" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="9:15">
       <c r="I44" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="48"/>
@@ -11765,12 +11762,12 @@
       <c r="M44" s="49"/>
       <c r="N44" s="50"/>
       <c r="O44" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="9:15">
       <c r="I45" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="48" t="s">
@@ -11780,12 +11777,12 @@
       <c r="M45" s="49"/>
       <c r="N45" s="50"/>
       <c r="O45" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="9:15">
       <c r="I46" s="69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="48"/>
@@ -11793,12 +11790,12 @@
       <c r="M46" s="49"/>
       <c r="N46" s="50"/>
       <c r="O46" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="9:15">
       <c r="I47" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J47" s="49"/>
       <c r="K47" s="48" t="s">
@@ -11808,12 +11805,12 @@
       <c r="M47" s="49"/>
       <c r="N47" s="50"/>
       <c r="O47" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="9:15">
       <c r="I48" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" s="49"/>
       <c r="K48" s="48"/>
@@ -11821,12 +11818,12 @@
       <c r="M48" s="49"/>
       <c r="N48" s="50"/>
       <c r="O48" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="I49" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="48"/>
@@ -11834,12 +11831,12 @@
       <c r="M49" s="48"/>
       <c r="N49" s="48"/>
       <c r="O49" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="I50" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="74"/>
@@ -11847,7 +11844,7 @@
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
       <c r="O50" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
@@ -11864,30 +11861,30 @@
         <v>103</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="M52" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="M52" s="67" t="s">
+      <c r="N52" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="N52" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="O52" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="I53" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J53" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K53" s="48"/>
       <c r="L53" s="48"/>
@@ -11897,7 +11894,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="I54" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J54" s="49"/>
       <c r="K54" s="48"/>
@@ -11905,12 +11902,12 @@
       <c r="M54" s="48"/>
       <c r="N54" s="48"/>
       <c r="O54" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="I55" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="48" t="s">
@@ -11920,12 +11917,12 @@
       <c r="M55" s="49"/>
       <c r="N55" s="50"/>
       <c r="O55" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="I56" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="48"/>
@@ -11933,12 +11930,12 @@
       <c r="M56" s="48"/>
       <c r="N56" s="48"/>
       <c r="O56" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="I57" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J57" s="64"/>
       <c r="K57" s="74"/>
@@ -11946,7 +11943,7 @@
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
       <c r="O57" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -12000,10 +11997,10 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE85335-AC34-41C6-B2E7-9FB7311639FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF6E69-1C54-4E19-944D-201329930F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="510" windowWidth="25365" windowHeight="14535" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" firstSheet="1" activeTab="6" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="417">
   <si>
     <t>UNIT</t>
   </si>
@@ -2107,7 +2107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2134,7 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2153,19 +2152,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2200,7 +2190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2794,7 +2783,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -2802,39 +2791,39 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2842,84 +2831,84 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="120" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="113"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="113"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="109" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="48" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E14" t="s">
@@ -2927,12 +2916,12 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E15" t="s">
@@ -2940,12 +2929,12 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="110" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2953,92 +2942,92 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="117"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106" t="s">
+      <c r="C20" s="99"/>
+      <c r="D20" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106" t="s">
+      <c r="C21" s="99"/>
+      <c r="D21" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="118"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3046,32 +3035,32 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="95"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -3079,92 +3068,92 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="95"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48" t="s">
+      <c r="B35" s="95"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48" t="s">
+      <c r="B38" s="95"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3172,12 +3161,12 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="48" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E39" t="s">
@@ -3389,10 +3378,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3438,26 +3427,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:7" s="15" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3467,16 +3456,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B17">
         <v>6212</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>61.2</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E17" t="s">
@@ -3490,16 +3479,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B18">
         <v>7964</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>132</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="E18" t="s">
@@ -3513,13 +3502,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B19">
         <v>4685</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>180.5</v>
       </c>
       <c r="D19" t="s">
@@ -3536,13 +3525,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>329</v>
       </c>
       <c r="B20">
         <v>6895</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
@@ -3556,13 +3545,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B21">
         <v>1140</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
@@ -3576,16 +3565,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>328</v>
       </c>
       <c r="B22">
         <v>7809</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>138.4</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E22" t="s">
@@ -3596,16 +3585,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>209</v>
       </c>
       <c r="B23">
         <v>887</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>64.7</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
@@ -3616,16 +3605,16 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>330</v>
       </c>
       <c r="B24">
         <v>3776</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>82.5</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
@@ -3636,16 +3625,16 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>331</v>
       </c>
       <c r="B25">
         <v>180</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>56</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E25" t="s">
@@ -3661,34 +3650,34 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3783,7 +3772,7 @@
       <c r="H34" t="s">
         <v>372</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>369</v>
       </c>
       <c r="J34">
@@ -3797,11 +3786,11 @@
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="17"/>
       <c r="H35" t="s">
         <v>373</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="17" t="s">
         <v>365</v>
       </c>
       <c r="J35">
@@ -3815,11 +3804,11 @@
       <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="17"/>
       <c r="H36" t="s">
         <v>374</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>364</v>
       </c>
       <c r="J36">
@@ -3833,11 +3822,11 @@
       <c r="C37" t="s">
         <v>362</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="17"/>
       <c r="H37" t="s">
         <v>375</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="17" t="s">
         <v>363</v>
       </c>
       <c r="J37">
@@ -3851,7 +3840,7 @@
       <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="17"/>
       <c r="H38" t="s">
         <v>376</v>
       </c>
@@ -3863,18 +3852,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="G39" s="18"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="G40" s="18"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="G42" s="18"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
@@ -3882,28 +3871,28 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3998,10 +3987,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C57" t="s">
@@ -4107,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4121,557 +4110,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
       <c r="E12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="44">
         <v>1140</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="44">
         <v>1</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
       <c r="E14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="43" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="44" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="81"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="69"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="69"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="75"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B34" s="51" t="str">
+      <c r="B34" s="44" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B33,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
         <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="44">
         <v>55</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="44">
         <v>199</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="44">
         <v>3.62</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="43"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="44">
         <v>1</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="69"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="43"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="43" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="39"/>
+      <c r="D42" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="43" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="43" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="44" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="81"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="41"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="69"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="69"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="42"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="69"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="42"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="69"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="43"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="69"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="69"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="43"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="69"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="43"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="69"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="43"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="98"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="43"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="69"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="43"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="69"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="43"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="69"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="99"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="99"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="43"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A64" s="100"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="44"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="38"/>
     </row>
     <row r="98" spans="1:2" ht="26.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="62" t="s">
+      <c r="B98" s="55" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4709,7 +4698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
@@ -4730,26 +4719,26 @@
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="131" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4761,880 +4750,880 @@
       <c r="A3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="69" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="69" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="46">
         <v>250</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="69" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="72" t="s">
+      <c r="H8" s="49"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="46">
         <v>60</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="69" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="72" t="s">
+      <c r="H9" s="115"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="69" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="72" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="75" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="69" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="72" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="83" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="48"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="81" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="43">
         <v>2</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="69" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="71"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="69" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="72"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="115" t="s">
         <v>331</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="72" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="69" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="72" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="44">
         <v>180</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="72" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="69" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="46">
         <v>0.05</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="69" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="69" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="48" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="83" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="75" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="61"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="81" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="69" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="71"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="69" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="71"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="69" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="72" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="69" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="48" t="s">
+      <c r="H27" s="46"/>
+      <c r="I27" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="69" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="72" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="69" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="48" t="s">
+      <c r="H29" s="46"/>
+      <c r="I29" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="69" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="48" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="69" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="48" t="s">
+      <c r="H31" s="46"/>
+      <c r="I31" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="69" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="48" t="s">
+      <c r="H32" s="46"/>
+      <c r="I32" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="83" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="75" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="61"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="81" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="67" t="s">
+      <c r="I35" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="69" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="71"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="64"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="69" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="71"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="64"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="69" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="72" t="s">
+      <c r="H38" s="49"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="69" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="48" t="s">
+      <c r="H39" s="46"/>
+      <c r="I39" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="69" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="48" t="s">
+      <c r="H40" s="46"/>
+      <c r="I40" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="72" t="s">
+      <c r="J40" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="83" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="75" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="81" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="67" t="s">
+      <c r="I43" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="69" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H44" s="82" t="s">
+      <c r="H44" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="71"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="69" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="71"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="64"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="69" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="72" t="s">
+      <c r="H46" s="49"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="69" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="48" t="s">
+      <c r="H47" s="46"/>
+      <c r="I47" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="69" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="72" t="s">
+      <c r="H48" s="46"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="69" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="48" t="s">
+      <c r="H49" s="46"/>
+      <c r="I49" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="69" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H50" s="53"/>
-      <c r="I50" s="48" t="s">
+      <c r="H50" s="46"/>
+      <c r="I50" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G51" s="83" t="s">
+      <c r="G51" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="75" t="s">
+      <c r="H51" s="47"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="68" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5690,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
@@ -5703,17 +5692,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="32" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5726,222 +5715,222 @@
       <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="42">
         <v>80</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="42">
         <v>1500</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="42">
         <v>350</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="95" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="95" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="48" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="48"/>
+      <c r="B24" s="41"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="D28" s="35"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="31" spans="1:4">
       <c r="D31" s="1"/>
@@ -6014,696 +6003,698 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="E1" s="32"/>
+      <c r="G1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="71"/>
-      <c r="G8" s="69" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="64"/>
+      <c r="G8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="72" t="s">
+      <c r="H8" s="49"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="71"/>
-      <c r="G9" s="69" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="64"/>
+      <c r="G9" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="72" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="48" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="48" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="46">
         <v>25</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="46">
         <v>15</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="48"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="75" t="s">
+      <c r="B14" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="G15" s="69" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="G15" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="71"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="G16" s="69" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="G16" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="71"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="46"/>
+      <c r="I17" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="64"/>
+      <c r="G18" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="72" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="43">
         <v>2</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="71"/>
-      <c r="G19" s="69" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="64"/>
+      <c r="G19" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="46">
         <v>30</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="75" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="72" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="75" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="71"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="G24" s="69" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="G24" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="71"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="G25" s="69" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="G25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="72" t="s">
+      <c r="H25" s="49"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="72" t="s">
+      <c r="I26" s="41"/>
+      <c r="J26" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="71"/>
-      <c r="G27" s="69" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="64"/>
+      <c r="G27" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="53" t="str">
+      <c r="H27" s="46" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
         <v>octyltrichlorosilane</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="72" t="s">
+      <c r="I27" s="41"/>
+      <c r="J27" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="43">
         <v>3</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="71"/>
-      <c r="G28" s="69" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="64"/>
+      <c r="G28" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="46">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
         <v>21354</v>
       </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="72" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="72" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="48" t="s">
+      <c r="H29" s="46"/>
+      <c r="I29" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="72" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="48" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B31" s="53" t="str">
+      <c r="B31" s="46" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
         <v>octyltrichlorosilane</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="72" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="75" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="46">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
         <v>21354</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="72" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="71"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="64"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="75" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="71"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="64"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="72" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="48" t="s">
+      <c r="H37" s="46"/>
+      <c r="I37" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="48" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="71" t="s">
+      <c r="H39" s="56"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="71" t="s">
+      <c r="H40" s="56"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G41" s="83" t="s">
+      <c r="G41" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="75" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="68" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6765,7 +6756,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6784,41 +6775,41 @@
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="34"/>
-      <c r="F3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="F3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="27" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="3"/>
@@ -6827,397 +6818,405 @@
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="71"/>
-      <c r="F7" s="69" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="64"/>
+      <c r="F7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="71" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="71" t="s">
+      <c r="B8" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="46">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="46">
+        <v>30</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="64" t="s">
         <v>256</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="46">
+        <v>25</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="71" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="71" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="87" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="87" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="80" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="61"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="83" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="71"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="6:10">
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="71" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="6:10">
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="6:10">
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="71" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="20" spans="6:10">
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="71" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="6:10">
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="91" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="22" spans="6:10">
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="48" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="23" spans="6:10">
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="48" t="s">
+      <c r="G23" s="46"/>
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="24" spans="6:10">
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="71" t="s">
+      <c r="G24" s="46"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="48" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="6:10">
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="71" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="87" t="s">
+      <c r="G27" s="47"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="80" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
-      <c r="F28" s="92"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="61"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="6:10" ht="15.75">
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67" t="s">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="68" t="s">
+      <c r="I29" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="6:10">
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="71"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="6:10">
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="71" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="74" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="87" t="s">
+      <c r="I32" s="80" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F33" s="61"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="6:10" ht="15.75">
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89" t="s">
+      <c r="G34" s="82"/>
+      <c r="H34" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="83" t="s">
         <v>163</v>
       </c>
       <c r="J34" t="s">
@@ -7225,76 +7224,76 @@
       </c>
     </row>
     <row r="35" spans="6:10">
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="71"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="6:10">
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="71" t="s">
+      <c r="G36" s="49"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="37" spans="6:10">
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="48" t="s">
+      <c r="G37" s="46"/>
+      <c r="H37" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="6:10">
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="48" t="s">
+      <c r="G38" s="46"/>
+      <c r="H38" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I38" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="6:10">
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="71" t="s">
+      <c r="G39" s="43"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" spans="6:10">
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="71" t="s">
+      <c r="G40" s="46"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="41" spans="6:10">
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="48" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" s="64" t="s">
         <v>256</v>
       </c>
       <c r="J41" t="s">
@@ -7302,42 +7301,42 @@
       </c>
     </row>
     <row r="42" spans="6:10">
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="71" t="s">
+      <c r="G42" s="56"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="43" spans="6:10">
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="71" t="s">
+      <c r="G43" s="46"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="6:10">
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="71" t="s">
+      <c r="G44" s="56"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F45" s="73" t="s">
+      <c r="F45" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="87" t="s">
+      <c r="G45" s="47"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="80" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7379,8 +7378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7394,328 +7393,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="E1" s="32"/>
+      <c r="G1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="41"/>
-      <c r="G5" s="81" t="s">
+      <c r="A5" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="B5" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="C5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="D5" s="61" t="s">
         <v>163</v>
       </c>
+      <c r="G5" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="25"/>
-      <c r="B6" s="40"/>
-      <c r="D6" s="42"/>
-      <c r="G6" s="69" t="s">
+      <c r="A6" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="B6" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="71"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="64"/>
+      <c r="G6" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="25"/>
-      <c r="B7" s="50"/>
-      <c r="D7" s="42"/>
-      <c r="G7" s="69" t="s">
+      <c r="A7" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="71"/>
+      <c r="B7" s="43">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="64"/>
+      <c r="G7" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="25"/>
-      <c r="B8" s="56"/>
-      <c r="D8" s="43"/>
-      <c r="G8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="72" t="s">
+      <c r="B8" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="65" t="s">
         <v>256</v>
       </c>
+      <c r="G8" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="65" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="25"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="43"/>
-      <c r="G9" s="69" t="s">
+      <c r="A9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="48" t="s">
+      <c r="B9" s="46">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="D9" s="65" t="s">
         <v>256</v>
       </c>
+      <c r="G9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="25"/>
-      <c r="B10" s="12"/>
-      <c r="D10" s="43"/>
-      <c r="G10" s="69" t="s">
+      <c r="A10" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="48" t="s">
+      <c r="B10" s="46">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="D10" s="65" t="s">
         <v>256</v>
       </c>
+      <c r="G10" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="44"/>
-      <c r="G11" s="83" t="s">
+      <c r="A11" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="75" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="68" t="s">
         <v>223</v>
       </c>
+      <c r="G11" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="68" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G12" s="85"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="48"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="71"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="71"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="72" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="72" t="s">
+      <c r="H17" s="46"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="7:10">
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="75" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="7:10" ht="15.75">
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="7:10">
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="71"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="7:10">
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="71"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="7:10">
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="71" t="s">
+      <c r="H25" s="49"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="64" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="72" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="7:10">
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="48" t="s">
+      <c r="H27" s="46"/>
+      <c r="I27" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="72" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="65" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="75" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="68" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7740,13 +7786,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B7 H7 H15 H24</xm:sqref>
+          <xm:sqref>H24 H7 H15 B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{58FEF6DE-536B-4801-A023-B1956B68A628}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>B8 H8 H16 H25</xm:sqref>
+          <xm:sqref>H25 H8 H16 B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7777,37 +7823,37 @@
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>163</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7816,628 +7862,628 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="52" t="s">
         <v>234</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="70" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="72"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="65"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="72"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="71"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="71"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="71" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="71" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="64" t="s">
         <v>223</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="46">
         <v>2.02E-4</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="71" t="s">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="46">
         <v>2.02E-4</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="42">
         <v>12</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="71" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="71" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="64" t="s">
         <v>223</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="126" t="s">
+      <c r="I11" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="71" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="46">
         <v>2.5</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
         <v>0.1</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="64" t="s">
         <v>221</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="71" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="71" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="64" t="s">
         <v>221</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="48" t="s">
+      <c r="J13" s="46"/>
+      <c r="K13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="71" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="71" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="72"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="15.75">
-      <c r="A15" s="69"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="72"/>
-      <c r="I15" s="78" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="65"/>
+      <c r="I15" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="72"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="72"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="71" t="s">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="71" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="64" t="s">
         <v>223</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="48" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="71" t="s">
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="71" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="46">
         <v>-3</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="72" t="s">
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="46">
         <v>-3</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="72" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="65" t="s">
         <v>223</v>
       </c>
       <c r="H19"/>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="48" t="s">
+      <c r="J19" s="46"/>
+      <c r="K19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="72" t="s">
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="65" t="s">
         <v>223</v>
       </c>
       <c r="H20" t="s">
         <v>377</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="72" t="s">
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="72" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="65" t="s">
         <v>223</v>
       </c>
       <c r="H21"/>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="72" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="72" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="72" t="s">
+      <c r="J22" s="46"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="72" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="72" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="72" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="72" t="s">
+      <c r="J24" s="56"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="72" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="H28" s="3"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="H29" s="3"/>
@@ -8465,7 +8511,7 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G31" s="33"/>
+      <c r="G31" s="27"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -8694,7 +8740,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:14" ht="15.75">
-      <c r="A54" s="58"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -8703,7 +8749,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:14" ht="15.75">
-      <c r="A55" s="58"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -8793,41 +8839,41 @@
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="60" t="s">
         <v>388</v>
       </c>
       <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -8835,77 +8881,77 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="I3" s="29" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="I3" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="61" t="s">
         <v>163</v>
       </c>
       <c r="H5"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="61" t="s">
         <v>163</v>
       </c>
       <c r="T5"/>
@@ -10956,993 +11002,993 @@
       <c r="XEZ5"/>
     </row>
     <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="71"/>
-      <c r="I6" s="69" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="64"/>
+      <c r="I6" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="71"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="72" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="72" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="42">
         <v>0.54</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="71" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="71" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="42">
         <v>50</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="71" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="48" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="71" t="s">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="71" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="71" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="72" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="72" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16.5" thickBot="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="71"/>
-      <c r="I15" s="66" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="64"/>
+      <c r="I15" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="72" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="71"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="64"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="42">
         <v>27</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="71" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="72" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="71" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="71" t="s">
+      <c r="J18" s="42"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="71" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="71" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="71" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="72" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="71" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="75" t="s">
+      <c r="J21" s="57"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="71" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="71" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.75">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="71" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K24" s="67" t="s">
+      <c r="K24" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="L24" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O24" s="68" t="s">
+      <c r="O24" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="71" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="71"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="64"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="71" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="72" t="s">
+      <c r="J26" s="42"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="72" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="48" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="71" t="s">
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="71" t="s">
+      <c r="J28" s="42"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="48" t="s">
+      <c r="J29" s="42"/>
+      <c r="K29" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="71" t="s">
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="48" t="s">
+      <c r="J30" s="58"/>
+      <c r="K30" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="71" t="s">
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="I31" s="69" t="s">
+      <c r="I31" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="48" t="s">
+      <c r="J31" s="58"/>
+      <c r="K31" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="71" t="s">
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="72" t="s">
+      <c r="J32" s="42"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="33" spans="9:15" ht="15.75" thickBot="1">
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="75" t="s">
+      <c r="J33" s="57"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" spans="9:15">
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="9:15" ht="15.75" thickBot="1">
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="9:15" ht="15.75">
-      <c r="I36" s="66" t="s">
+      <c r="I36" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K36" s="67" t="s">
+      <c r="K36" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="L36" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M36" s="67" t="s">
+      <c r="M36" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N36" s="67" t="s">
+      <c r="N36" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O36" s="68" t="s">
+      <c r="O36" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="9:15">
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="J37" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="71"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="64"/>
     </row>
     <row r="38" spans="9:15">
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="72" t="s">
+      <c r="J38" s="42"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="39" spans="9:15">
-      <c r="I39" s="69" t="s">
+      <c r="I39" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="48" t="s">
+      <c r="J39" s="42"/>
+      <c r="K39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="71" t="s">
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="40" spans="9:15">
-      <c r="I40" s="69" t="s">
+      <c r="I40" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="71" t="s">
+      <c r="J40" s="42"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="41" spans="9:15">
-      <c r="I41" s="69" t="s">
+      <c r="I41" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="48" t="s">
+      <c r="J41" s="42"/>
+      <c r="K41" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="71" t="s">
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="42" spans="9:15">
-      <c r="I42" s="69" t="s">
+      <c r="I42" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="71" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="43" spans="9:15">
-      <c r="I43" s="69" t="s">
+      <c r="I43" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="48" t="s">
+      <c r="J43" s="42"/>
+      <c r="K43" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="71" t="s">
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="9:15">
-      <c r="I44" s="69" t="s">
+      <c r="I44" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="71" t="s">
+      <c r="J44" s="42"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="45" spans="9:15">
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="J45" s="49"/>
-      <c r="K45" s="48" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="71" t="s">
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="46" spans="9:15">
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="J46" s="49"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="71" t="s">
+      <c r="J46" s="42"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="47" spans="9:15">
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="J47" s="49"/>
-      <c r="K47" s="48" t="s">
+      <c r="J47" s="42"/>
+      <c r="K47" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="71" t="s">
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="48" spans="9:15">
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="J48" s="49"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="71" t="s">
+      <c r="J48" s="42"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J49" s="49"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="72" t="s">
+      <c r="J49" s="42"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
-      <c r="I50" s="73" t="s">
+      <c r="I50" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="75" t="s">
+      <c r="J50" s="57"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="52" spans="1:15" ht="15.75">
-      <c r="I52" s="66" t="s">
+      <c r="I52" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="K52" s="67" t="s">
+      <c r="K52" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="L52" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M52" s="67" t="s">
+      <c r="M52" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N52" s="67" t="s">
+      <c r="N52" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="O52" s="68" t="s">
+      <c r="O52" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="I53" s="69" t="s">
+      <c r="I53" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="J53" s="70" t="s">
+      <c r="J53" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="71"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="64"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="I54" s="69" t="s">
+      <c r="I54" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="J54" s="49"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="72" t="s">
+      <c r="J54" s="42"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="I55" s="69" t="s">
+      <c r="I55" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="J55" s="49"/>
-      <c r="K55" s="48" t="s">
+      <c r="J55" s="42"/>
+      <c r="K55" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="71" t="s">
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="I56" s="69" t="s">
+      <c r="I56" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="72" t="s">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="65" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1">
-      <c r="I57" s="73" t="s">
+      <c r="I57" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="J57" s="64"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="75" t="s">
+      <c r="J57" s="57"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="68" t="s">
         <v>223</v>
       </c>
     </row>
@@ -11973,7 +12019,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="29"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64"/>
@@ -11983,7 +12029,7 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64" s="33"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8"/>
@@ -11992,7 +12038,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="33"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:15">
@@ -12163,7 +12209,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="33"/>
+      <c r="G79" s="27"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:15">

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF6E69-1C54-4E19-944D-201329930F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E475BB-3000-445A-8FAE-2CFFCF277F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" firstSheet="1" activeTab="6" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2763,7 +2763,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4698,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5680,7 +5680,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E23"/>
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6756,7 +6756,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7378,7 +7378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -7805,7 +7805,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -8812,7 +8812,7 @@
   <dimension ref="A1:XEZ120"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E475BB-3000-445A-8FAE-2CFFCF277F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461BB66B-434D-4B49-9815-0BD40D6E916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="415">
   <si>
     <t>UNIT</t>
   </si>
@@ -1450,16 +1450,10 @@
     <t>date_of_citation</t>
   </si>
   <si>
-    <t>Sigma Aldrich</t>
-  </si>
-  <si>
     <t>Ossila</t>
   </si>
   <si>
     <t>M0311A2</t>
-  </si>
-  <si>
-    <t>s1234</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -2763,7 +2757,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D16"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2820,7 +2814,7 @@
         <v>139</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
@@ -2835,7 +2829,7 @@
         <v>140</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
@@ -2847,7 +2841,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
@@ -4094,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4252,337 +4246,311 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A16" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="74"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="A18" s="62"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A20" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A22" s="113" t="s">
-        <v>277</v>
-      </c>
+      <c r="A19" s="62"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="62"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="76"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="68"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="74"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="62"/>
-      <c r="B24" s="75"/>
+      <c r="A23" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="109"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="109"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="64"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="62"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="65"/>
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="62"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="65"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="68"/>
+      <c r="A26" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A30" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>163</v>
-      </c>
+      <c r="A28" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="44" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B27,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="44">
+        <v>55</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="44">
+        <v>199</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="44">
+        <v>3.62</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>264</v>
+        <v>359</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="115" t="s">
-        <v>62</v>
-      </c>
+      <c r="A33" s="62"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="B34" s="44" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B33,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
-      </c>
+      <c r="A34" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="B35" s="44">
-        <v>55</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="37"/>
+        <v>267</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="44">
-        <v>199</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="D36" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="B37" s="44">
-        <v>3.62</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B37" s="44"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="B38" s="44">
-        <v>1</v>
-      </c>
+      <c r="A38" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="44"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="44"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="37"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="37"/>
+      <c r="D39" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="38" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A42" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="74"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="44"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="44"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A46" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="38" t="s">
-        <v>223</v>
-      </c>
+      <c r="D45" s="36"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="62"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A48" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="74"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="35"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="62"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="37"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="62"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="62"/>
-      <c r="B50" s="34"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="62"/>
-      <c r="B51" s="115"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="39"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="39"/>
-      <c r="D52" s="36"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="62"/>
@@ -4603,64 +4571,28 @@
       <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="62"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="44"/>
       <c r="C56" s="39"/>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="62"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="39"/>
       <c r="D57" s="37"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="91"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="37"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="62"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="37"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="62"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="37"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="62"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="37"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="92"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="37"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="92"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="37"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A64" s="93"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="38"/>
-    </row>
-    <row r="98" spans="1:2" ht="26.25">
-      <c r="A98" s="55" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="93"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="92" spans="1:2" ht="26.25">
+      <c r="A92" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B92" s="55" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4680,13 +4612,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B25</xm:sqref>
+          <xm:sqref>B12 B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B33 B51</xm:sqref>
+          <xm:sqref>B27 B45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4698,7 +4630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461BB66B-434D-4B49-9815-0BD40D6E916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFB72C-A0D4-457C-B4BD-0F10F63ABF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="495" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2439,6 +2439,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4090,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4200,10 +4209,10 @@
       <c r="A11" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="127" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:5">
@@ -4213,7 +4222,7 @@
       <c r="B12" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="37"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4226,21 +4235,21 @@
       <c r="B13" s="44">
         <v>1140</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="37"/>
       <c r="E13" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="48">
         <v>1</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="38"/>
       <c r="E14" t="s">
         <v>278</v>
       </c>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/db_feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299F8CC-A466-4D82-A246-C4ABC074C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C757B-3A6B-044C-8847-FA109E4076DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="960" windowWidth="25365" windowHeight="14535" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="240" yWindow="820" windowWidth="25360" windowHeight="14540" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -1481,7 +1481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,7 +1831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2105,12 +2105,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2438,6 +2451,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2456,7 +2472,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2776,22 +2795,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="75.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="5" width="52.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2804,23 +2823,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="112" t="s">
         <v>260</v>
       </c>
@@ -2829,7 +2848,7 @@
       <c r="D4" s="101"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="113" t="s">
         <v>140</v>
       </c>
@@ -2844,7 +2863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="113" t="s">
         <v>141</v>
       </c>
@@ -2856,11 +2875,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="127" t="s">
         <v>417</v>
       </c>
       <c r="C7" s="48"/>
@@ -2868,13 +2887,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="113"/>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="112" t="s">
         <v>144</v>
       </c>
@@ -2882,7 +2901,7 @@
       <c r="C9" s="104"/>
       <c r="D9" s="104"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="113" t="s">
         <v>295</v>
       </c>
@@ -2892,13 +2911,13 @@
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="113"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="114" t="s">
         <v>25</v>
       </c>
@@ -2907,7 +2926,7 @@
       <c r="D12" s="61"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="115" t="s">
         <v>26</v>
       </c>
@@ -2916,7 +2935,7 @@
       <c r="D13" s="79"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="116" t="s">
         <v>296</v>
       </c>
@@ -2929,7 +2948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
         <v>297</v>
       </c>
@@ -2942,7 +2961,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
         <v>298</v>
       </c>
@@ -2955,14 +2974,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
         <v>145</v>
       </c>
@@ -2971,7 +2990,7 @@
       <c r="D18" s="61"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="112" t="s">
         <v>59</v>
       </c>
@@ -2979,7 +2998,7 @@
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="113" t="s">
         <v>385</v>
       </c>
@@ -2994,7 +3013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="113" t="s">
         <v>391</v>
       </c>
@@ -3007,13 +3026,13 @@
       </c>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="118"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="112" t="s">
         <v>60</v>
       </c>
@@ -3021,7 +3040,7 @@
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="119" t="s">
         <v>143</v>
       </c>
@@ -3029,13 +3048,13 @@
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="110"/>
       <c r="B25" s="110"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
         <v>396</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>398</v>
       </c>
@@ -3058,7 +3077,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
         <v>399</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
         <v>400</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
         <v>401</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
         <v>402</v>
       </c>
@@ -3101,7 +3120,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
         <v>403</v>
       </c>
@@ -3111,7 +3130,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
         <v>404</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
         <v>405</v>
       </c>
@@ -3131,7 +3150,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
         <v>406</v>
       </c>
@@ -3141,7 +3160,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
         <v>407</v>
       </c>
@@ -3151,7 +3170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
         <v>408</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
         <v>409</v>
       </c>
@@ -3174,7 +3193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
         <v>410</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
     </row>
   </sheetData>
@@ -3373,25 +3392,25 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
@@ -3399,11 +3418,11 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -3411,7 +3430,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>147</v>
       </c>
@@ -3419,29 +3438,29 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1">
+    <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>333</v>
       </c>
@@ -3464,12 +3483,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>66</v>
       </c>
@@ -3492,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
@@ -3515,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>67</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>330</v>
       </c>
@@ -3558,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
@@ -3578,7 +3597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>329</v>
       </c>
@@ -3598,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>210</v>
       </c>
@@ -3618,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>331</v>
       </c>
@@ -3638,7 +3657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>332</v>
       </c>
@@ -3658,12 +3677,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3714,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -3718,7 +3737,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -3750,7 +3769,7 @@
         <v>7372</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3773,7 +3792,7 @@
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -3793,7 +3812,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -3811,7 +3830,7 @@
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -3829,7 +3848,7 @@
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -3847,7 +3866,7 @@
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -3865,26 +3884,26 @@
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G42" s="18"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>10</v>
       </c>
@@ -3910,12 +3929,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -3941,7 +3960,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3967,7 +3986,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3984,7 +4003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3995,12 +4014,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>28</v>
       </c>
@@ -4026,7 +4045,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -4052,7 +4071,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>307</v>
       </c>
@@ -4092,7 +4111,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>306</v>
       </c>
@@ -4114,16 +4133,16 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>131</v>
       </c>
@@ -4138,14 +4157,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="2" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
         <v>283</v>
       </c>
@@ -4155,7 +4174,7 @@
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
         <v>264</v>
       </c>
@@ -4165,7 +4184,7 @@
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
         <v>301</v>
       </c>
@@ -4180,13 +4199,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="112" t="s">
         <v>130</v>
       </c>
@@ -4194,7 +4213,7 @@
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
         <v>277</v>
       </c>
@@ -4202,7 +4221,7 @@
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
         <v>274</v>
       </c>
@@ -4216,7 +4235,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>264</v>
       </c>
@@ -4226,7 +4245,7 @@
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="69" t="s">
         <v>326</v>
       </c>
@@ -4239,7 +4258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="69" t="s">
         <v>276</v>
       </c>
@@ -4252,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
         <v>302</v>
       </c>
@@ -4265,7 +4284,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="98" t="s">
         <v>267</v>
       </c>
@@ -4273,7 +4292,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="43"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="69" t="s">
         <v>268</v>
       </c>
@@ -4285,7 +4304,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>269</v>
       </c>
@@ -4297,7 +4316,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>271</v>
       </c>
@@ -4307,7 +4326,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="99" t="s">
         <v>272</v>
       </c>
@@ -4317,7 +4336,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
         <v>273</v>
       </c>
@@ -4327,13 +4346,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>278</v>
       </c>
@@ -4341,43 +4360,43 @@
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="81"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="D23" s="68"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="69"/>
       <c r="B24" s="82"/>
       <c r="C24" s="48"/>
       <c r="D24" s="71"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="69"/>
       <c r="B25" s="50"/>
       <c r="C25" s="48"/>
       <c r="D25" s="72"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="53"/>
       <c r="C26" s="48"/>
       <c r="D26" s="72"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1">
+    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83"/>
       <c r="B27" s="54"/>
       <c r="C27" s="84"/>
       <c r="D27" s="75"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="112" t="s">
         <v>132</v>
       </c>
@@ -4385,7 +4404,7 @@
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1">
+    <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="112" t="s">
         <v>280</v>
       </c>
@@ -4393,7 +4412,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="81" t="s">
         <v>263</v>
       </c>
@@ -4407,7 +4426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
@@ -4417,7 +4436,7 @@
       <c r="C32" s="45"/>
       <c r="D32" s="42"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="69" t="s">
         <v>343</v>
       </c>
@@ -4427,7 +4446,7 @@
       <c r="C33" s="45"/>
       <c r="D33" s="42"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="69" t="s">
         <v>326</v>
       </c>
@@ -4438,7 +4457,7 @@
       <c r="C34" s="45"/>
       <c r="D34" s="42"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
         <v>327</v>
       </c>
@@ -4450,7 +4469,7 @@
       </c>
       <c r="D35" s="43"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="69" t="s">
         <v>328</v>
       </c>
@@ -4462,7 +4481,7 @@
       </c>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="69" t="s">
         <v>266</v>
       </c>
@@ -4472,7 +4491,7 @@
       <c r="C37" s="45"/>
       <c r="D37" s="43"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="69" t="s">
         <v>360</v>
       </c>
@@ -4482,13 +4501,13 @@
       <c r="C38" s="45"/>
       <c r="D38" s="43"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="69"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="98" t="s">
         <v>267</v>
       </c>
@@ -4496,7 +4515,7 @@
       <c r="C40" s="45"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="69" t="s">
         <v>268</v>
       </c>
@@ -4508,7 +4527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>269</v>
       </c>
@@ -4520,7 +4539,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
         <v>270</v>
       </c>
@@ -4530,7 +4549,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="99" t="s">
         <v>271</v>
       </c>
@@ -4540,7 +4559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="99" t="s">
         <v>272</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="100" t="s">
         <v>273</v>
       </c>
@@ -4560,13 +4579,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
     </row>
-    <row r="48" spans="1:4" ht="16.5" thickBot="1">
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="112" t="s">
         <v>281</v>
       </c>
@@ -4574,103 +4593,103 @@
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="81"/>
       <c r="B49" s="121"/>
       <c r="C49" s="121"/>
       <c r="D49" s="41"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="69"/>
       <c r="B50" s="40"/>
       <c r="C50" s="45"/>
       <c r="D50" s="42"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="69"/>
       <c r="B51" s="122"/>
       <c r="C51" s="45"/>
       <c r="D51" s="42"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="69"/>
       <c r="B52" s="51"/>
       <c r="C52" s="45"/>
       <c r="D52" s="42"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="69"/>
       <c r="B53" s="51"/>
       <c r="C53" s="45"/>
       <c r="D53" s="43"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="69"/>
       <c r="B54" s="51"/>
       <c r="C54" s="45"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="69"/>
       <c r="B55" s="51"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="69"/>
       <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="69"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="98"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="69"/>
       <c r="B59" s="51"/>
       <c r="C59" s="45"/>
       <c r="D59" s="43"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="51"/>
       <c r="C60" s="45"/>
       <c r="D60" s="43"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="69"/>
       <c r="B61" s="51"/>
       <c r="C61" s="45"/>
       <c r="D61" s="43"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="99"/>
       <c r="B62" s="51"/>
       <c r="C62" s="45"/>
       <c r="D62" s="43"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="99"/>
       <c r="B63" s="51"/>
       <c r="C63" s="45"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="100"/>
       <c r="B64" s="55"/>
       <c r="C64" s="123"/>
       <c r="D64" s="44"/>
     </row>
-    <row r="98" spans="1:2" ht="26.25">
+    <row r="98" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
         <v>212</v>
       </c>
@@ -4716,20 +4735,20 @@
       <selection activeCell="A4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4740,19 +4759,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4760,7 +4779,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4771,7 +4790,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>163</v>
       </c>
@@ -4791,7 +4810,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
         <v>148</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
         <v>156</v>
       </c>
@@ -4835,7 +4854,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
         <v>155</v>
       </c>
@@ -4853,7 +4872,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="71"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>303</v>
       </c>
@@ -4877,7 +4896,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>158</v>
       </c>
@@ -4901,7 +4920,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>159</v>
       </c>
@@ -4925,7 +4944,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>157</v>
       </c>
@@ -4945,7 +4964,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -4961,7 +4980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>76</v>
       </c>
@@ -4981,7 +5000,7 @@
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
         <v>148</v>
       </c>
@@ -5005,7 +5024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="69" t="s">
         <v>156</v>
       </c>
@@ -5025,7 +5044,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="69" t="s">
         <v>155</v>
       </c>
@@ -5045,7 +5064,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>326</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>276</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
         <v>308</v>
       </c>
@@ -5115,7 +5134,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
         <v>157</v>
       </c>
@@ -5137,7 +5156,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -5153,7 +5172,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -5165,7 +5184,7 @@
       <c r="I22" s="48"/>
       <c r="J22" s="61"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -5185,7 +5204,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
@@ -5201,7 +5220,7 @@
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -5215,7 +5234,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -5231,7 +5250,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -5249,7 +5268,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -5265,7 +5284,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -5283,7 +5302,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -5301,7 +5320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -5319,7 +5338,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -5337,7 +5356,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -5353,7 +5372,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -5365,7 +5384,7 @@
       <c r="I34" s="48"/>
       <c r="J34" s="61"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -5385,7 +5404,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -5401,7 +5420,7 @@
       <c r="I36" s="48"/>
       <c r="J36" s="71"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -5415,7 +5434,7 @@
       <c r="I37" s="48"/>
       <c r="J37" s="71"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -5431,7 +5450,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -5449,7 +5468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -5467,7 +5486,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -5483,7 +5502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -5495,7 +5514,7 @@
       <c r="I42" s="93"/>
       <c r="J42" s="93"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -5515,7 +5534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -5531,7 +5550,7 @@
       <c r="I44" s="48"/>
       <c r="J44" s="71"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -5545,7 +5564,7 @@
       <c r="I45" s="48"/>
       <c r="J45" s="71"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -5561,7 +5580,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -5579,7 +5598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -5595,7 +5614,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -5613,7 +5632,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -5631,7 +5650,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" thickBot="1">
+    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G51" s="83" t="s">
         <v>157</v>
       </c>
@@ -5641,7 +5660,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>212</v>
       </c>
@@ -5693,19 +5712,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>87</v>
       </c>
@@ -5720,15 +5739,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
         <v>171</v>
       </c>
@@ -5736,7 +5755,7 @@
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
         <v>165</v>
       </c>
@@ -5748,7 +5767,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
         <v>167</v>
       </c>
@@ -5762,7 +5781,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
         <v>168</v>
       </c>
@@ -5776,7 +5795,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
         <v>169</v>
       </c>
@@ -5788,7 +5807,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
         <v>170</v>
       </c>
@@ -5800,13 +5819,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="s">
         <v>172</v>
       </c>
@@ -5814,7 +5833,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="95" t="s">
         <v>166</v>
       </c>
@@ -5826,7 +5845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="s">
         <v>289</v>
       </c>
@@ -5838,7 +5857,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="s">
         <v>290</v>
       </c>
@@ -5852,7 +5871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
         <v>291</v>
       </c>
@@ -5862,7 +5881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="s">
         <v>292</v>
       </c>
@@ -5872,25 +5891,25 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="95" t="s">
         <v>16</v>
       </c>
@@ -5898,7 +5917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="95" t="s">
         <v>293</v>
       </c>
@@ -5910,7 +5929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>173</v>
       </c>
@@ -5920,7 +5939,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>174</v>
       </c>
@@ -5930,7 +5949,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>175</v>
       </c>
@@ -5940,17 +5959,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="35"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6008,15 +6027,15 @@
       <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>176</v>
       </c>
@@ -6026,25 +6045,25 @@
         <v>164</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="29" t="s">
         <v>80</v>
       </c>
@@ -6052,13 +6071,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G5" s="81" t="s">
         <v>177</v>
       </c>
@@ -6072,7 +6091,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G6" s="69" t="s">
         <v>148</v>
       </c>
@@ -6082,7 +6101,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
         <v>177</v>
       </c>
@@ -6102,7 +6121,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="71"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>148</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>156</v>
       </c>
@@ -6140,7 +6159,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>155</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>326</v>
       </c>
@@ -6184,7 +6203,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>158</v>
       </c>
@@ -6206,7 +6225,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>159</v>
       </c>
@@ -6224,7 +6243,7 @@
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
         <v>157</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -6260,7 +6279,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -6272,7 +6291,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="71"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
         <v>179</v>
       </c>
@@ -6296,7 +6315,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>148</v>
       </c>
@@ -6314,7 +6333,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
         <v>156</v>
       </c>
@@ -6334,7 +6353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>159</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>181</v>
       </c>
@@ -6372,7 +6391,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="69" t="s">
         <v>154</v>
       </c>
@@ -6396,7 +6415,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>157</v>
       </c>
@@ -6414,7 +6433,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
@@ -6426,7 +6445,7 @@
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -6440,7 +6459,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="81" t="s">
         <v>182</v>
       </c>
@@ -6464,7 +6483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="69" t="s">
         <v>148</v>
       </c>
@@ -6485,7 +6504,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="69" t="s">
         <v>156</v>
       </c>
@@ -6506,7 +6525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="69" t="s">
         <v>155</v>
       </c>
@@ -6526,7 +6545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="69" t="s">
         <v>362</v>
       </c>
@@ -6548,7 +6567,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>326</v>
       </c>
@@ -6569,7 +6588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>276</v>
       </c>
@@ -6586,7 +6605,7 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="69" t="s">
         <v>158</v>
       </c>
@@ -6610,7 +6629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="69" t="s">
         <v>159</v>
       </c>
@@ -6630,7 +6649,7 @@
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
         <v>157</v>
       </c>
@@ -6646,7 +6665,7 @@
       <c r="I35" s="48"/>
       <c r="J35" s="71"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G36" s="69" t="s">
         <v>185</v>
       </c>
@@ -6656,7 +6675,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G37" s="69" t="s">
         <v>186</v>
       </c>
@@ -6668,7 +6687,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G38" s="69" t="s">
         <v>187</v>
       </c>
@@ -6680,7 +6699,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G39" s="69" t="s">
         <v>205</v>
       </c>
@@ -6690,7 +6709,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G40" s="69" t="s">
         <v>206</v>
       </c>
@@ -6700,7 +6719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="83" t="s">
         <v>157</v>
       </c>
@@ -6710,7 +6729,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -6771,19 +6790,19 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -6792,26 +6811,26 @@
       <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="F3" s="29" t="s">
         <v>92</v>
@@ -6820,13 +6839,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="33" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
@@ -6841,7 +6860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>85</v>
       </c>
@@ -6861,7 +6880,7 @@
       <c r="H6" s="48"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
         <v>192</v>
       </c>
@@ -6879,7 +6898,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>155</v>
       </c>
@@ -6899,7 +6918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>196</v>
       </c>
@@ -6921,7 +6940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>197</v>
       </c>
@@ -6944,7 +6963,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>158</v>
       </c>
@@ -6969,7 +6988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="69" t="s">
         <v>198</v>
       </c>
@@ -6987,7 +7006,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>157</v>
       </c>
@@ -7005,13 +7024,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="61"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F15" s="88" t="s">
         <v>86</v>
       </c>
@@ -7023,7 +7042,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="69" t="s">
         <v>192</v>
       </c>
@@ -7033,7 +7052,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="69" t="s">
         <v>155</v>
       </c>
@@ -7043,7 +7062,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18" s="69" t="s">
         <v>199</v>
       </c>
@@ -7055,7 +7074,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="69" t="s">
         <v>200</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="69" t="s">
         <v>201</v>
       </c>
@@ -7078,7 +7097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="69" t="s">
         <v>202</v>
       </c>
@@ -7090,7 +7109,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="69" t="s">
         <v>158</v>
       </c>
@@ -7102,7 +7121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="69" t="s">
         <v>153</v>
       </c>
@@ -7114,7 +7133,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="69" t="s">
         <v>323</v>
       </c>
@@ -7124,7 +7143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="69" t="s">
         <v>203</v>
       </c>
@@ -7136,7 +7155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="69" t="s">
         <v>321</v>
       </c>
@@ -7146,7 +7165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="15.75" thickBot="1">
+    <row r="27" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="73" t="s">
         <v>157</v>
       </c>
@@ -7156,13 +7175,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="6:10" ht="16.5" thickBot="1">
+    <row r="28" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F28" s="92"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="61"/>
     </row>
-    <row r="29" spans="6:10" ht="15.75">
+    <row r="29" spans="6:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F29" s="66" t="s">
         <v>89</v>
       </c>
@@ -7174,7 +7193,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30" s="69" t="s">
         <v>192</v>
       </c>
@@ -7184,7 +7203,7 @@
       <c r="H30" s="48"/>
       <c r="I30" s="71"/>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31" s="69" t="s">
         <v>155</v>
       </c>
@@ -7194,7 +7213,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="6:10" ht="15.75" thickBot="1">
+    <row r="32" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F32" s="73" t="s">
         <v>203</v>
       </c>
@@ -7206,13 +7225,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15.75" thickBot="1">
+    <row r="33" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F33" s="61"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
     </row>
-    <row r="34" spans="6:10" ht="15.75">
+    <row r="34" spans="6:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F34" s="88" t="s">
         <v>207</v>
       </c>
@@ -7227,7 +7246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="69" t="s">
         <v>192</v>
       </c>
@@ -7235,7 +7254,7 @@
       <c r="H35" s="48"/>
       <c r="I35" s="71"/>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="69" t="s">
         <v>155</v>
       </c>
@@ -7245,7 +7264,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="69" t="s">
         <v>199</v>
       </c>
@@ -7257,7 +7276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="69" t="s">
         <v>158</v>
       </c>
@@ -7269,7 +7288,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="69" t="s">
         <v>321</v>
       </c>
@@ -7279,7 +7298,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="69" t="s">
         <v>157</v>
       </c>
@@ -7289,7 +7308,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="69" t="s">
         <v>203</v>
       </c>
@@ -7304,7 +7323,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="69" t="s">
         <v>258</v>
       </c>
@@ -7314,7 +7333,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="6:10">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="69" t="s">
         <v>259</v>
       </c>
@@ -7324,7 +7343,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="6:10">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="69" t="s">
         <v>205</v>
       </c>
@@ -7334,7 +7353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15.75" thickBot="1">
+    <row r="45" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F45" s="73" t="s">
         <v>206</v>
       </c>
@@ -7386,17 +7405,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>188</v>
       </c>
@@ -7406,25 +7425,25 @@
         <v>164</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="29" t="s">
         <v>80</v>
       </c>
@@ -7432,7 +7451,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>235</v>
       </c>
@@ -7441,7 +7460,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -7459,7 +7478,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="40"/>
       <c r="D6" s="42"/>
@@ -7472,7 +7491,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="50"/>
       <c r="D7" s="42"/>
@@ -7483,7 +7502,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="71"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="56"/>
       <c r="D8" s="43"/>
@@ -7496,7 +7515,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="12"/>
       <c r="D9" s="43"/>
@@ -7511,7 +7530,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="12"/>
       <c r="D10" s="43"/>
@@ -7526,7 +7545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
@@ -7540,13 +7559,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G12" s="85"/>
       <c r="H12" s="48"/>
       <c r="I12" s="61"/>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G13" s="81" t="s">
         <v>177</v>
       </c>
@@ -7560,7 +7579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" s="69" t="s">
         <v>148</v>
       </c>
@@ -7570,7 +7589,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="71"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="69" t="s">
         <v>156</v>
       </c>
@@ -7578,7 +7597,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16" s="69" t="s">
         <v>155</v>
       </c>
@@ -7588,7 +7607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" s="69" t="s">
         <v>322</v>
       </c>
@@ -7598,7 +7617,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G18" s="69" t="s">
         <v>158</v>
       </c>
@@ -7610,7 +7629,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G19" s="69" t="s">
         <v>159</v>
       </c>
@@ -7622,7 +7641,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G20" s="83" t="s">
         <v>157</v>
       </c>
@@ -7632,13 +7651,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1">
+    <row r="21" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="22" spans="7:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G22" s="81" t="s">
         <v>88</v>
       </c>
@@ -7652,7 +7671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G23" s="69" t="s">
         <v>148</v>
       </c>
@@ -7662,7 +7681,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G24" s="69" t="s">
         <v>156</v>
       </c>
@@ -7670,7 +7689,7 @@
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G25" s="69" t="s">
         <v>155</v>
       </c>
@@ -7680,7 +7699,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G26" s="69" t="s">
         <v>185</v>
       </c>
@@ -7690,7 +7709,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G27" s="69" t="s">
         <v>186</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G28" s="69" t="s">
         <v>187</v>
       </c>
@@ -7712,7 +7731,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="16.5" thickBot="1">
+    <row r="29" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G29" s="83" t="s">
         <v>157</v>
       </c>
@@ -7722,7 +7741,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>212</v>
       </c>
@@ -7765,18 +7784,18 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
@@ -7799,14 +7818,14 @@
         <v>164</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
         <v>237</v>
       </c>
@@ -7818,7 +7837,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
@@ -7828,7 +7847,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>235</v>
       </c>
@@ -7839,7 +7858,7 @@
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I5" s="76" t="s">
         <v>380</v>
       </c>
@@ -7862,7 +7881,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>380</v>
       </c>
@@ -7894,7 +7913,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
         <v>232</v>
       </c>
@@ -7917,7 +7936,7 @@
       <c r="N7" s="79"/>
       <c r="O7" s="71"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>214</v>
       </c>
@@ -7942,7 +7961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>223</v>
       </c>
@@ -7971,7 +7990,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="126" t="s">
         <v>215</v>
       </c>
@@ -8007,7 +8026,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="80" t="s">
         <v>225</v>
       </c>
@@ -8034,7 +8053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="126" t="s">
         <v>383</v>
       </c>
@@ -8067,7 +8086,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="69" t="s">
         <v>219</v>
       </c>
@@ -8094,7 +8113,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
         <v>231</v>
       </c>
@@ -8116,7 +8135,7 @@
       <c r="N14" s="48"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="69"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -8134,7 +8153,7 @@
       <c r="N15" s="48"/>
       <c r="O15" s="72"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>233</v>
       </c>
@@ -8159,7 +8178,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>155</v>
       </c>
@@ -8188,7 +8207,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>158</v>
       </c>
@@ -8218,7 +8237,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
         <v>226</v>
       </c>
@@ -8249,7 +8268,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
         <v>227</v>
       </c>
@@ -8280,7 +8299,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="69" t="s">
         <v>242</v>
       </c>
@@ -8307,7 +8326,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="69" t="s">
         <v>173</v>
       </c>
@@ -8331,7 +8350,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="69" t="s">
         <v>174</v>
       </c>
@@ -8355,7 +8374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="69" t="s">
         <v>175</v>
       </c>
@@ -8382,7 +8401,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>350</v>
       </c>
@@ -8406,7 +8425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
         <v>157</v>
       </c>
@@ -8425,7 +8444,7 @@
       <c r="M26" s="79"/>
       <c r="N26" s="79"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I27" s="79"/>
       <c r="J27" s="79"/>
       <c r="K27" s="79"/>
@@ -8433,7 +8452,7 @@
       <c r="M27" s="79"/>
       <c r="N27" s="79"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="3"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
@@ -8442,7 +8461,7 @@
       <c r="M28" s="48"/>
       <c r="N28" s="48"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="3"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -8451,7 +8470,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8467,7 +8486,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" s="33"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -8476,7 +8495,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -8492,7 +8511,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="3"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -8501,7 +8520,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -8510,7 +8529,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8520,7 +8539,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8530,7 +8549,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8539,7 +8558,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -8548,7 +8567,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8557,7 +8576,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8566,7 +8585,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="43" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -8575,7 +8594,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="44" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -8591,7 +8610,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -8607,7 +8626,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -8622,7 +8641,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -8637,7 +8656,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="48" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -8651,7 +8670,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -8665,10 +8684,10 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>212</v>
       </c>
@@ -8684,19 +8703,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8705,7 +8724,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="58"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -8772,27 +8791,27 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>238</v>
       </c>
@@ -8814,20 +8833,20 @@
       <c r="G1" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
-    </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
+    </row>
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8837,7 +8856,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
         <v>235</v>
       </c>
@@ -8854,7 +8873,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -8867,7 +8886,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>97</v>
       </c>
@@ -10958,7 +10977,7 @@
       <c r="XER5"/>
       <c r="XEZ5"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
         <v>214</v>
       </c>
@@ -10982,7 +11001,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="71"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
         <v>242</v>
       </c>
@@ -11008,7 +11027,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>256</v>
       </c>
@@ -11034,7 +11053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>248</v>
       </c>
@@ -11064,7 +11083,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>249</v>
       </c>
@@ -11088,7 +11107,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>350</v>
       </c>
@@ -11112,7 +11131,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>255</v>
       </c>
@@ -11136,7 +11155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -11152,7 +11171,7 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16.5" thickBot="1">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>101</v>
       </c>
@@ -11182,7 +11201,7 @@
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="69" t="s">
         <v>214</v>
       </c>
@@ -11216,7 +11235,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A16" s="69" t="s">
         <v>242</v>
       </c>
@@ -11240,7 +11259,7 @@
       <c r="N16" s="48"/>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>352</v>
       </c>
@@ -11268,7 +11287,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>353</v>
       </c>
@@ -11292,7 +11311,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
         <v>354</v>
       </c>
@@ -11320,7 +11339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
         <v>355</v>
       </c>
@@ -11344,7 +11363,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>356</v>
       </c>
@@ -11370,7 +11389,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="69" t="s">
         <v>357</v>
       </c>
@@ -11390,7 +11409,7 @@
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>358</v>
       </c>
@@ -11412,7 +11431,7 @@
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="69" t="s">
         <v>359</v>
       </c>
@@ -11446,7 +11465,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="69" t="s">
         <v>246</v>
       </c>
@@ -11472,7 +11491,7 @@
       <c r="N25" s="48"/>
       <c r="O25" s="71"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="69" t="s">
         <v>247</v>
       </c>
@@ -11496,7 +11515,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="69" t="s">
         <v>350</v>
       </c>
@@ -11522,7 +11541,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
         <v>255</v>
       </c>
@@ -11546,7 +11565,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I29" s="69" t="s">
         <v>251</v>
       </c>
@@ -11561,7 +11580,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I30" s="69" t="s">
         <v>252</v>
       </c>
@@ -11576,7 +11595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I31" s="69" t="s">
         <v>253</v>
       </c>
@@ -11591,7 +11610,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I32" s="69" t="s">
         <v>350</v>
       </c>
@@ -11604,7 +11623,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="15.75" thickBot="1">
+    <row r="33" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I33" s="73" t="s">
         <v>255</v>
       </c>
@@ -11617,7 +11636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="9:15">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
@@ -11626,7 +11645,7 @@
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
     </row>
-    <row r="35" spans="9:15" ht="15.75" thickBot="1">
+    <row r="35" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
@@ -11635,7 +11654,7 @@
       <c r="N35" s="61"/>
       <c r="O35" s="61"/>
     </row>
-    <row r="36" spans="9:15" ht="15.75">
+    <row r="36" spans="9:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I36" s="66" t="s">
         <v>101</v>
       </c>
@@ -11658,7 +11677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="9:15">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I37" s="69" t="s">
         <v>214</v>
       </c>
@@ -11671,7 +11690,7 @@
       <c r="N37" s="48"/>
       <c r="O37" s="71"/>
     </row>
-    <row r="38" spans="9:15">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I38" s="69" t="s">
         <v>242</v>
       </c>
@@ -11684,7 +11703,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="9:15">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I39" s="69" t="s">
         <v>352</v>
       </c>
@@ -11699,7 +11718,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="9:15">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I40" s="69" t="s">
         <v>353</v>
       </c>
@@ -11712,7 +11731,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="9:15">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I41" s="69" t="s">
         <v>354</v>
       </c>
@@ -11727,7 +11746,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="9:15">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I42" s="69" t="s">
         <v>355</v>
       </c>
@@ -11740,7 +11759,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="9:15">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I43" s="69" t="s">
         <v>356</v>
       </c>
@@ -11755,7 +11774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="9:15">
+    <row r="44" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I44" s="69" t="s">
         <v>357</v>
       </c>
@@ -11768,7 +11787,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="9:15">
+    <row r="45" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I45" s="69" t="s">
         <v>358</v>
       </c>
@@ -11783,7 +11802,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="9:15">
+    <row r="46" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I46" s="69" t="s">
         <v>359</v>
       </c>
@@ -11796,7 +11815,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="9:15">
+    <row r="47" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I47" s="69" t="s">
         <v>246</v>
       </c>
@@ -11811,7 +11830,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="9:15">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I48" s="69" t="s">
         <v>247</v>
       </c>
@@ -11824,7 +11843,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I49" s="69" t="s">
         <v>350</v>
       </c>
@@ -11837,7 +11856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="73" t="s">
         <v>255</v>
       </c>
@@ -11850,7 +11869,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1">
+    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
       <c r="K51" s="61"/>
@@ -11859,7 +11878,7 @@
       <c r="N51" s="61"/>
       <c r="O51" s="61"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I52" s="66" t="s">
         <v>103</v>
       </c>
@@ -11882,7 +11901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I53" s="69" t="s">
         <v>214</v>
       </c>
@@ -11895,7 +11914,7 @@
       <c r="N53" s="48"/>
       <c r="O53" s="71"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I54" s="69" t="s">
         <v>242</v>
       </c>
@@ -11908,7 +11927,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I55" s="69" t="s">
         <v>243</v>
       </c>
@@ -11923,7 +11942,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I56" s="69" t="s">
         <v>350</v>
       </c>
@@ -11936,7 +11955,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I57" s="73" t="s">
         <v>255</v>
       </c>
@@ -11949,7 +11968,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -11959,7 +11978,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -11968,7 +11987,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -11978,7 +11997,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -11988,7 +12007,7 @@
       <c r="G64"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -11998,7 +12017,7 @@
       <c r="G65" s="33"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -12012,7 +12031,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -12021,7 +12040,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -12030,7 +12049,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -12039,7 +12058,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -12056,7 +12075,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -12072,7 +12091,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -12088,7 +12107,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -12104,7 +12123,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -12121,7 +12140,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -12131,7 +12150,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -12140,7 +12159,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -12149,7 +12168,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -12159,7 +12178,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -12169,7 +12188,7 @@
       <c r="G79" s="33"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -12179,7 +12198,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -12189,7 +12208,7 @@
       <c r="G81" s="8"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -12199,7 +12218,7 @@
       <c r="G82" s="8"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -12216,7 +12235,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -12233,7 +12252,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -12249,7 +12268,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -12266,7 +12285,7 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -12283,7 +12302,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -12292,7 +12311,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -12301,7 +12320,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -12310,7 +12329,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -12320,7 +12339,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -12329,7 +12348,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -12338,7 +12357,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -12347,7 +12366,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -12364,7 +12383,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -12381,7 +12400,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -12397,7 +12416,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -12413,7 +12432,7 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -12430,7 +12449,7 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -12440,7 +12459,7 @@
       <c r="G100" s="8"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -12450,7 +12469,7 @@
       <c r="G101" s="8"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -12460,7 +12479,7 @@
       <c r="G102" s="8"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -12469,7 +12488,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -12478,7 +12497,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -12487,7 +12506,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -12497,7 +12516,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -12507,7 +12526,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -12517,7 +12536,7 @@
       <c r="G108"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -12527,7 +12546,7 @@
       <c r="G109"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -12537,7 +12556,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -12545,7 +12564,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="118" spans="9:15">
+    <row r="118" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -12554,7 +12573,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="9:15">
+    <row r="119" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I119"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -12563,7 +12582,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="9:15">
+    <row r="120" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFB72C-A0D4-457C-B4BD-0F10F63ABF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275FCEEE-682D-422B-8C32-886AEE15D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="4410" yWindow="1485" windowWidth="25365" windowHeight="14535" activeTab="5" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2421,6 +2421,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2438,15 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2794,10 +2788,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="7"/>
@@ -4099,7 +4093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4128,11 +4122,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="89" t="s">
@@ -4209,10 +4203,10 @@
       <c r="A11" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:5">
@@ -4222,7 +4216,7 @@
       <c r="B12" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="37"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4235,7 +4229,7 @@
       <c r="B13" s="44">
         <v>1140</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="37"/>
       <c r="E13" s="29" t="s">
         <v>1</v>
@@ -4248,7 +4242,7 @@
       <c r="B14" s="48">
         <v>1</v>
       </c>
-      <c r="C14" s="129"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="38"/>
       <c r="E14" t="s">
         <v>278</v>
@@ -4667,19 +4661,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5932,7 +5926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:D14"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5953,19 +5947,19 @@
         <v>163</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6696,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6721,19 +6715,19 @@
       <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="45"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7343,19 +7337,19 @@
         <v>163</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7783,12 +7777,12 @@
         <v>163</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="50" t="s">
@@ -8798,20 +8792,20 @@
       <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="127"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>

--- a/db_feed/v6_example.xlsx
+++ b/db_feed/v6_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/db_feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFB72C-A0D4-457C-B4BD-0F10F63ABF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361C1E3-501C-8649-ABAF-FE6E0CAAEFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="3720" yWindow="460" windowWidth="25360" windowHeight="14540" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -1032,9 +1032,6 @@
     <t>Solvent 2: Copy and paste another solvent box here if a second solvent was used</t>
   </si>
   <si>
-    <t>0 to 100. If only one solvent, type 100</t>
-  </si>
-  <si>
     <t>Polymer 1: Usually the polymer semiconductor</t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
   <si>
     <t>aliu319@gatech.edu</t>
   </si>
+  <si>
+    <t>0 to 1. If only one solvent, type 1</t>
+  </si>
 </sst>
 </file>
 
@@ -1472,7 +1472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2421,6 +2421,15 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2438,15 +2447,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2765,22 +2765,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="75.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="5" width="52.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2793,23 +2793,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="105" t="s">
         <v>259</v>
       </c>
@@ -2818,12 +2818,12 @@
       <c r="D4" s="94"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
@@ -2833,37 +2833,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="106" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="106"/>
       <c r="B8" s="97"/>
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="105" t="s">
         <v>143</v>
       </c>
@@ -2871,9 +2871,9 @@
       <c r="C9" s="97"/>
       <c r="D9" s="97"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>146</v>
@@ -2881,13 +2881,13 @@
       <c r="C10" s="99"/>
       <c r="D10" s="99"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="106"/>
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="107" t="s">
         <v>25</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="108" t="s">
         <v>26</v>
       </c>
@@ -2905,9 +2905,9 @@
       <c r="D13" s="72"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="95"/>
       <c r="C14" s="100"/>
@@ -2918,9 +2918,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="95"/>
       <c r="C15" s="100"/>
@@ -2928,12 +2928,12 @@
         <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="100"/>
@@ -2941,17 +2941,17 @@
         <v>223</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="110"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="107" t="s">
         <v>144</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="105" t="s">
         <v>59</v>
       </c>
@@ -2968,9 +2968,9 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B20" s="101" t="s">
         <v>127</v>
@@ -2983,12 +2983,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="99" t="s">
@@ -2996,13 +2996,13 @@
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="111"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="105" t="s">
         <v>60</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="112" t="s">
         <v>142</v>
       </c>
@@ -3018,15 +3018,15 @@
       <c r="C24" s="102"/>
       <c r="D24" s="102"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="103"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" s="95"/>
       <c r="C26" s="41"/>
@@ -3034,12 +3034,12 @@
         <v>223</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="41" t="s">
-        <v>397</v>
       </c>
       <c r="B27" s="95"/>
       <c r="C27" s="41"/>
@@ -3047,9 +3047,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B28" s="95"/>
       <c r="C28" s="41"/>
@@ -3057,9 +3057,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29" s="95"/>
       <c r="C29" s="41"/>
@@ -3070,9 +3070,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" s="95"/>
       <c r="C30" s="41"/>
@@ -3080,9 +3080,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B31" s="95"/>
       <c r="C31" s="41"/>
@@ -3090,9 +3090,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B32" s="95"/>
       <c r="C32" s="41"/>
@@ -3100,9 +3100,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B33" s="95"/>
       <c r="C33" s="41"/>
@@ -3110,9 +3110,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B34" s="95"/>
       <c r="C34" s="41"/>
@@ -3120,9 +3120,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B35" s="95"/>
       <c r="C35" s="41"/>
@@ -3130,9 +3130,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" s="95"/>
       <c r="C36" s="41"/>
@@ -3140,9 +3140,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B37" s="95"/>
       <c r="C37" s="41"/>
@@ -3150,9 +3150,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B38" s="95"/>
       <c r="C38" s="41"/>
@@ -3163,9 +3163,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B39" s="104"/>
       <c r="C39" s="100"/>
@@ -3176,7 +3176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
     </row>
   </sheetData>
@@ -3362,89 +3362,89 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1">
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>17</v>
@@ -3453,12 +3453,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
@@ -3527,9 +3527,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3538,16 +3538,16 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
@@ -3558,18 +3558,18 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3581,13 +3581,13 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>209</v>
       </c>
@@ -3607,9 +3607,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3627,9 +3627,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3647,12 +3647,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>8</v>
       </c>
@@ -3684,9 +3684,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -3695,21 +3695,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -3718,28 +3718,28 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J32">
         <v>7372</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3747,22 +3747,22 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J33">
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -3770,19 +3770,19 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J34">
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -3791,16 +3791,16 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J35">
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -3809,34 +3809,34 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J36">
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J37">
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -3845,35 +3845,35 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J38">
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G42" s="17"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>10</v>
       </c>
@@ -3899,12 +3899,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -3912,10 +3912,10 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -3924,13 +3924,13 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -3938,10 +3938,10 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3950,21 +3950,21 @@
         <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" t="s">
         <v>305</v>
-      </c>
-      <c r="D52" t="s">
-        <v>306</v>
       </c>
       <c r="E52" t="s">
         <v>107</v>
@@ -3973,23 +3973,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>28</v>
       </c>
@@ -4012,15 +4012,15 @@
         <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C59" t="s">
         <v>120</v>
@@ -4038,15 +4038,15 @@
         <v>214</v>
       </c>
       <c r="H59" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C60" t="s">
         <v>121</v>
@@ -4064,15 +4064,15 @@
         <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
@@ -4081,9 +4081,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
         <v>218</v>
@@ -4099,20 +4099,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>130</v>
       </c>
@@ -4127,36 +4127,36 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="118" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" s="118" t="s">
-        <v>283</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="44">
         <v>4</v>
@@ -4169,13 +4169,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="105" t="s">
         <v>129</v>
       </c>
@@ -4183,15 +4183,17 @@
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>273</v>
       </c>
@@ -4205,62 +4207,62 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="37"/>
       <c r="E12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>275</v>
       </c>
       <c r="B13" s="44">
         <v>1140</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="37"/>
       <c r="E13" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="48">
         <v>1</v>
       </c>
-      <c r="C14" s="129"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="38"/>
       <c r="E14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1">
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
         <v>277</v>
       </c>
@@ -4268,43 +4270,43 @@
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="74"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="61"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="75"/>
       <c r="C18" s="41"/>
       <c r="D18" s="64"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="43"/>
       <c r="C19" s="41"/>
       <c r="D19" s="65"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="46"/>
       <c r="C20" s="41"/>
       <c r="D20" s="65"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="47"/>
       <c r="C21" s="77"/>
       <c r="D21" s="68"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="105" t="s">
         <v>131</v>
       </c>
@@ -4312,15 +4314,15 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="109"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
         <v>262</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>263</v>
       </c>
@@ -4344,9 +4346,9 @@
       <c r="C26" s="39"/>
       <c r="D26" s="36"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B27" s="115" t="s">
         <v>62</v>
@@ -4354,9 +4356,9 @@
       <c r="C27" s="39"/>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" s="44" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B27,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4365,31 +4367,31 @@
       <c r="C28" s="39"/>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="44">
         <v>55</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="44">
         <v>199</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
         <v>265</v>
       </c>
@@ -4399,9 +4401,9 @@
       <c r="C31" s="39"/>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B32" s="44">
         <v>1</v>
@@ -4409,13 +4411,13 @@
       <c r="C32" s="39"/>
       <c r="D32" s="37"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="s">
         <v>266</v>
       </c>
@@ -4423,31 +4425,31 @@
       <c r="C34" s="39"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>267</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
         <v>268</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="s">
         <v>269</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="92" t="s">
         <v>270</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="92" t="s">
         <v>271</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="s">
         <v>272</v>
       </c>
@@ -4487,117 +4489,117 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+    <row r="42" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="74"/>
       <c r="B43" s="114"/>
       <c r="C43" s="114"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="62"/>
       <c r="B44" s="34"/>
       <c r="C44" s="39"/>
       <c r="D44" s="36"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
       <c r="B45" s="115"/>
       <c r="C45" s="39"/>
       <c r="D45" s="36"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
       <c r="B46" s="44"/>
       <c r="C46" s="39"/>
       <c r="D46" s="36"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
       <c r="B47" s="44"/>
       <c r="C47" s="39"/>
       <c r="D47" s="37"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="62"/>
       <c r="B48" s="44"/>
       <c r="C48" s="39"/>
       <c r="D48" s="37"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="62"/>
       <c r="B49" s="44"/>
       <c r="C49" s="39"/>
       <c r="D49" s="37"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="62"/>
       <c r="B50" s="44"/>
       <c r="C50" s="39"/>
       <c r="D50" s="37"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="37"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="91"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="37"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="62"/>
       <c r="B53" s="44"/>
       <c r="C53" s="39"/>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="62"/>
       <c r="B54" s="44"/>
       <c r="C54" s="39"/>
       <c r="D54" s="37"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="62"/>
       <c r="B55" s="44"/>
       <c r="C55" s="39"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="92"/>
       <c r="B56" s="44"/>
       <c r="C56" s="39"/>
       <c r="D56" s="37"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="92"/>
       <c r="B57" s="44"/>
       <c r="C57" s="39"/>
       <c r="D57" s="37"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93"/>
       <c r="B58" s="48"/>
       <c r="C58" s="116"/>
       <c r="D58" s="38"/>
     </row>
-    <row r="92" spans="1:2" ht="26.25">
+    <row r="92" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>211</v>
       </c>
@@ -4643,20 +4645,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4667,19 +4669,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4687,7 +4689,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4698,7 +4700,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>162</v>
       </c>
@@ -4718,7 +4720,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>147</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>155</v>
       </c>
@@ -4762,7 +4764,7 @@
       <c r="I6" s="41"/>
       <c r="J6" s="64"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>154</v>
       </c>
@@ -4780,9 +4782,9 @@
       <c r="I7" s="41"/>
       <c r="J7" s="64"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="46">
         <v>250</v>
@@ -4804,7 +4806,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>157</v>
       </c>
@@ -4820,7 +4822,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="41"/>
       <c r="G9" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H9" s="115"/>
       <c r="I9" s="41"/>
@@ -4828,7 +4830,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>158</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>156</v>
       </c>
@@ -4864,7 +4866,7 @@
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="41"/>
@@ -4872,7 +4874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -4888,7 +4890,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>76</v>
       </c>
@@ -4908,7 +4910,7 @@
       <c r="I13" s="54"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
         <v>147</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
         <v>155</v>
       </c>
@@ -4952,12 +4954,12 @@
       <c r="I15" s="41"/>
       <c r="J15" s="64"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="65" t="s">
@@ -4972,12 +4974,12 @@
       <c r="I16" s="41"/>
       <c r="J16" s="65"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="65" t="s">
@@ -4994,7 +4996,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
         <v>275</v>
       </c>
@@ -5008,7 +5010,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="41" t="s">
@@ -5018,9 +5020,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="46">
         <v>0.05</v>
@@ -5042,7 +5044,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>156</v>
       </c>
@@ -5058,13 +5060,13 @@
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J20" s="65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5080,7 +5082,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -5092,7 +5094,7 @@
       <c r="I22" s="41"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -5112,7 +5114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -5128,7 +5130,7 @@
       <c r="I24" s="41"/>
       <c r="J24" s="64"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -5142,7 +5144,7 @@
       <c r="I25" s="41"/>
       <c r="J25" s="64"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -5158,7 +5160,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -5176,7 +5178,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -5192,7 +5194,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -5210,7 +5212,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -5228,7 +5230,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5236,7 +5238,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="41" t="s">
@@ -5246,7 +5248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -5264,7 +5266,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -5280,7 +5282,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -5292,7 +5294,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -5312,7 +5314,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -5328,7 +5330,7 @@
       <c r="I36" s="41"/>
       <c r="J36" s="64"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -5342,7 +5344,7 @@
       <c r="I37" s="41"/>
       <c r="J37" s="64"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -5358,7 +5360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -5376,7 +5378,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -5394,7 +5396,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -5410,7 +5412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -5422,7 +5424,7 @@
       <c r="I42" s="86"/>
       <c r="J42" s="86"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -5442,7 +5444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -5458,7 +5460,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="64"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -5472,7 +5474,7 @@
       <c r="I45" s="41"/>
       <c r="J45" s="64"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -5488,7 +5490,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -5506,7 +5508,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -5522,7 +5524,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -5540,7 +5542,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -5558,7 +5560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" thickBot="1">
+    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G51" s="76" t="s">
         <v>156</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -5624,15 +5626,15 @@
       <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
@@ -5647,15 +5649,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
         <v>170</v>
       </c>
@@ -5663,19 +5665,19 @@
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
         <v>164</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
         <v>166</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
         <v>167</v>
       </c>
@@ -5703,37 +5705,37 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="s">
         <v>168</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
         <v>171</v>
       </c>
@@ -5741,21 +5743,21 @@
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="88" t="s">
         <v>165</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>44</v>
@@ -5765,9 +5767,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="42">
         <v>350</v>
@@ -5779,9 +5781,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="41"/>
@@ -5789,9 +5791,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="41"/>
@@ -5799,13 +5801,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>132</v>
       </c>
@@ -5813,9 +5815,9 @@
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="88" t="s">
@@ -5825,9 +5827,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="88" t="s">
@@ -5837,7 +5839,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>172</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>173</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>174</v>
       </c>
@@ -5867,17 +5869,17 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="41"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="29"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5935,15 +5937,15 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>175</v>
       </c>
@@ -5953,25 +5955,25 @@
         <v>163</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
@@ -5979,13 +5981,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G5" s="74" t="s">
         <v>176</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G6" s="62" t="s">
         <v>147</v>
       </c>
@@ -6009,7 +6011,7 @@
       <c r="I6" s="41"/>
       <c r="J6" s="64"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>176</v>
       </c>
@@ -6029,7 +6031,7 @@
       <c r="I7" s="41"/>
       <c r="J7" s="64"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>147</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>155</v>
       </c>
@@ -6057,7 +6059,7 @@
       <c r="C9" s="41"/>
       <c r="D9" s="64"/>
       <c r="G9" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>209</v>
@@ -6067,12 +6069,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="65" t="s">
@@ -6089,9 +6091,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>209</v>
@@ -6111,7 +6113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>157</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>158</v>
       </c>
@@ -6151,7 +6153,7 @@
       <c r="I13" s="54"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>156</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -6189,7 +6191,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="64"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -6201,7 +6203,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="64"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>178</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
         <v>147</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
         <v>155</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>158</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>180</v>
       </c>
@@ -6301,7 +6303,7 @@
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
         <v>153</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
         <v>156</v>
       </c>
@@ -6343,7 +6345,7 @@
       <c r="I23" s="41"/>
       <c r="J23" s="64"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -6355,7 +6357,7 @@
       <c r="I24" s="41"/>
       <c r="J24" s="64"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -6369,7 +6371,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
         <v>181</v>
       </c>
@@ -6383,17 +6385,17 @@
         <v>163</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
         <v>147</v>
       </c>
@@ -6403,7 +6405,7 @@
       <c r="C27" s="41"/>
       <c r="D27" s="64"/>
       <c r="G27" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H27" s="46" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6414,7 +6416,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="62" t="s">
         <v>155</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="62" t="s">
         <v>154</v>
       </c>
@@ -6455,12 +6457,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="65" t="s">
@@ -6471,15 +6473,15 @@
       </c>
       <c r="H30" s="46"/>
       <c r="I30" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="46" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6498,7 +6500,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
         <v>275</v>
       </c>
@@ -6515,7 +6517,7 @@
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="s">
         <v>157</v>
       </c>
@@ -6539,13 +6541,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>256</v>
@@ -6559,7 +6561,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="64"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>156</v>
       </c>
@@ -6575,7 +6577,7 @@
       <c r="I35" s="41"/>
       <c r="J35" s="64"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G36" s="62" t="s">
         <v>184</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G37" s="62" t="s">
         <v>185</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G38" s="62" t="s">
         <v>186</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G39" s="62" t="s">
         <v>204</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G40" s="62" t="s">
         <v>205</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="76" t="s">
         <v>156</v>
       </c>
@@ -6639,12 +6641,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6700,19 +6702,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -6721,26 +6723,26 @@
       <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126"/>
-    </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="45"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="F3" s="25" t="s">
         <v>92</v>
@@ -6749,13 +6751,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="27" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>85</v>
       </c>
@@ -6790,7 +6792,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="64"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>191</v>
       </c>
@@ -6808,12 +6810,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="64" t="s">
@@ -6830,7 +6832,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>195</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>196</v>
       </c>
@@ -6879,7 +6881,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>157</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
         <v>197</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>156</v>
       </c>
@@ -6942,13 +6944,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="54"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F15" s="81" t="s">
         <v>86</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="62" t="s">
         <v>191</v>
       </c>
@@ -6970,7 +6972,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="62" t="s">
         <v>154</v>
       </c>
@@ -6980,19 +6982,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18" s="62" t="s">
         <v>198</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="62" t="s">
         <v>199</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="62" t="s">
         <v>200</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="62" t="s">
         <v>201</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="62" t="s">
         <v>157</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="62" t="s">
         <v>152</v>
       </c>
@@ -7051,9 +7053,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="41"/>
@@ -7061,7 +7063,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="62" t="s">
         <v>202</v>
       </c>
@@ -7073,9 +7075,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="41"/>
@@ -7083,7 +7085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="15.75" thickBot="1">
+    <row r="27" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="66" t="s">
         <v>156</v>
       </c>
@@ -7093,13 +7095,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="6:10" ht="16.5" thickBot="1">
+    <row r="28" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F28" s="85"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="54"/>
     </row>
-    <row r="29" spans="6:10" ht="15.75">
+    <row r="29" spans="6:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F29" s="59" t="s">
         <v>89</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30" s="62" t="s">
         <v>191</v>
       </c>
@@ -7121,7 +7123,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="64"/>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31" s="62" t="s">
         <v>154</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="6:10" ht="15.75" thickBot="1">
+    <row r="32" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F32" s="66" t="s">
         <v>202</v>
       </c>
@@ -7143,13 +7145,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15.75" thickBot="1">
+    <row r="33" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F33" s="54"/>
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
       <c r="I33" s="86"/>
     </row>
-    <row r="34" spans="6:10" ht="15.75">
+    <row r="34" spans="6:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F34" s="81" t="s">
         <v>206</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="62" t="s">
         <v>191</v>
       </c>
@@ -7172,7 +7174,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="64"/>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="62" t="s">
         <v>154</v>
       </c>
@@ -7182,19 +7184,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="62" t="s">
         <v>198</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I37" s="64" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="62" t="s">
         <v>157</v>
       </c>
@@ -7206,9 +7208,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="41"/>
@@ -7216,7 +7218,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="62" t="s">
         <v>156</v>
       </c>
@@ -7226,7 +7228,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="62" t="s">
         <v>202</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="62" t="s">
         <v>257</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="6:10">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="62" t="s">
         <v>258</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="6:10">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="62" t="s">
         <v>204</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15.75" thickBot="1">
+    <row r="45" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F45" s="66" t="s">
         <v>205</v>
       </c>
@@ -7323,17 +7325,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>187</v>
       </c>
@@ -7343,25 +7345,25 @@
         <v>163</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
-    </row>
-    <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
@@ -7369,7 +7371,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>234</v>
       </c>
@@ -7378,7 +7380,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>189</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>147</v>
       </c>
@@ -7422,7 +7424,7 @@
       <c r="I6" s="41"/>
       <c r="J6" s="64"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>155</v>
       </c>
@@ -7438,12 +7440,12 @@
       <c r="I7" s="41"/>
       <c r="J7" s="64"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="65" t="s">
@@ -7458,7 +7460,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>157</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>158</v>
       </c>
@@ -7490,7 +7492,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>256</v>
@@ -7500,13 +7502,13 @@
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J10" s="65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>156</v>
       </c>
@@ -7524,13 +7526,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G12" s="78"/>
       <c r="H12" s="41"/>
       <c r="I12" s="54"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G13" s="74" t="s">
         <v>176</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" s="62" t="s">
         <v>147</v>
       </c>
@@ -7554,7 +7556,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="64"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="62" t="s">
         <v>155</v>
       </c>
@@ -7562,7 +7564,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="64"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16" s="62" t="s">
         <v>154</v>
       </c>
@@ -7572,9 +7574,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" s="62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="41"/>
@@ -7582,7 +7584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G18" s="62" t="s">
         <v>157</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G19" s="62" t="s">
         <v>158</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G20" s="76" t="s">
         <v>156</v>
       </c>
@@ -7616,13 +7618,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1">
+    <row r="21" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
     </row>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="22" spans="7:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G22" s="74" t="s">
         <v>88</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G23" s="62" t="s">
         <v>147</v>
       </c>
@@ -7646,7 +7648,7 @@
       <c r="I23" s="41"/>
       <c r="J23" s="64"/>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G24" s="62" t="s">
         <v>155</v>
       </c>
@@ -7654,7 +7656,7 @@
       <c r="I24" s="41"/>
       <c r="J24" s="64"/>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G25" s="62" t="s">
         <v>154</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G26" s="62" t="s">
         <v>184</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G27" s="62" t="s">
         <v>185</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G28" s="62" t="s">
         <v>186</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="16.5" thickBot="1">
+    <row r="29" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G29" s="76" t="s">
         <v>156</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>211</v>
       </c>
@@ -7749,48 +7751,48 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>163</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>236</v>
       </c>
@@ -7802,7 +7804,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
@@ -7812,7 +7814,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>234</v>
       </c>
@@ -7823,47 +7825,47 @@
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I5" s="69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K5" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="M5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="N5" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O5" s="70" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>163</v>
@@ -7878,7 +7880,7 @@
       <c r="N6" s="41"/>
       <c r="O6" s="65"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
         <v>231</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>213</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
@@ -7901,12 +7903,12 @@
       <c r="N7" s="72"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>213</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -7926,7 +7928,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>222</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
         <v>214</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G10" s="64" t="s">
         <v>221</v>
@@ -7991,7 +7993,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
         <v>224</v>
       </c>
@@ -8007,7 +8009,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="119" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="41"/>
@@ -8018,9 +8020,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="119" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" s="46">
         <v>2.5</v>
@@ -8033,7 +8035,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>221</v>
@@ -8051,7 +8053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>218</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
         <v>230</v>
       </c>
@@ -8100,7 +8102,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="65"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -8118,7 +8120,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="65"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
         <v>232</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>154</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
@@ -8143,12 +8145,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -8172,7 +8174,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
         <v>157</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
         <v>225</v>
       </c>
@@ -8233,7 +8235,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
         <v>226</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I20" s="62" t="s">
         <v>241</v>
@@ -8264,7 +8266,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
         <v>241</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
         <v>172</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
         <v>173</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
         <v>174</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>239</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="41"/>
@@ -8366,9 +8368,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="41"/>
@@ -8390,7 +8392,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>156</v>
       </c>
@@ -8409,7 +8411,7 @@
       <c r="M26" s="72"/>
       <c r="N26" s="72"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
@@ -8417,7 +8419,7 @@
       <c r="M27" s="72"/>
       <c r="N27" s="72"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="3"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -8426,7 +8428,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="3"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -8435,7 +8437,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8451,7 +8453,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" s="27"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -8460,7 +8462,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -8476,7 +8478,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="3"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -8485,7 +8487,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -8494,7 +8496,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8504,7 +8506,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8514,7 +8516,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8523,7 +8525,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -8532,7 +8534,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8541,7 +8543,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8550,7 +8552,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="43" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -8559,7 +8561,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="44" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -8575,7 +8577,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -8591,7 +8593,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -8606,7 +8608,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -8621,7 +8623,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="48" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -8635,7 +8637,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -8649,10 +8651,10 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>211</v>
       </c>
@@ -8668,19 +8670,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8689,7 +8691,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -8756,62 +8758,62 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
-    </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="121" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+    </row>
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -8821,7 +8823,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>234</v>
       </c>
@@ -8838,7 +8840,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -8851,24 +8853,24 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="E5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>163</v>
@@ -8878,19 +8880,19 @@
         <v>97</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K5" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="M5" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="N5" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O5" s="61" t="s">
         <v>163</v>
@@ -10942,12 +10944,12 @@
       <c r="XER5"/>
       <c r="XEZ5"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>213</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -10958,7 +10960,7 @@
         <v>213</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
@@ -10966,7 +10968,7 @@
       <c r="N6" s="41"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>241</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>255</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>247</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>248</v>
       </c>
@@ -11072,9 +11074,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="41"/>
@@ -11085,7 +11087,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="41"/>
@@ -11096,7 +11098,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>254</v>
       </c>
@@ -11120,7 +11122,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -11136,24 +11138,24 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16.5" thickBot="1">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="E14" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="F14" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>163</v>
@@ -11166,7 +11168,7 @@
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
         <v>213</v>
       </c>
@@ -11182,25 +11184,25 @@
         <v>98</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K15" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="M15" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="N15" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N15" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O15" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>241</v>
       </c>
@@ -11216,7 +11218,7 @@
         <v>213</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
@@ -11224,9 +11226,9 @@
       <c r="N16" s="41"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="42">
         <v>27</v>
@@ -11252,9 +11254,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="41"/>
@@ -11265,7 +11267,7 @@
         <v>221</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="41"/>
@@ -11276,9 +11278,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="41" t="s">
@@ -11304,9 +11306,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="41"/>
@@ -11317,7 +11319,7 @@
         <v>221</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="41"/>
@@ -11328,9 +11330,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="41" t="s">
@@ -11354,9 +11356,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="41"/>
@@ -11374,9 +11376,9 @@
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="41" t="s">
@@ -11396,9 +11398,9 @@
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="41"/>
@@ -11412,25 +11414,25 @@
         <v>99</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K24" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L24" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="M24" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M24" s="60" t="s">
+      <c r="N24" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N24" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O24" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
         <v>245</v>
       </c>
@@ -11456,7 +11458,7 @@
       <c r="N25" s="41"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>246</v>
       </c>
@@ -11480,9 +11482,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="41"/>
@@ -11506,7 +11508,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
         <v>254</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I29" s="62" t="s">
         <v>250</v>
       </c>
@@ -11545,7 +11547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I30" s="62" t="s">
         <v>251</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I31" s="62" t="s">
         <v>252</v>
       </c>
@@ -11575,9 +11577,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I32" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="41"/>
@@ -11588,7 +11590,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="15.75" thickBot="1">
+    <row r="33" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I33" s="66" t="s">
         <v>254</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="9:15">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
       <c r="K34" s="54"/>
@@ -11610,7 +11612,7 @@
       <c r="N34" s="54"/>
       <c r="O34" s="54"/>
     </row>
-    <row r="35" spans="9:15" ht="15.75" thickBot="1">
+    <row r="35" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
       <c r="K35" s="54"/>
@@ -11619,30 +11621,30 @@
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
     </row>
-    <row r="36" spans="9:15" ht="15.75">
+    <row r="36" spans="9:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I36" s="59" t="s">
         <v>101</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K36" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L36" s="60" t="s">
+      <c r="M36" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M36" s="60" t="s">
+      <c r="N36" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N36" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O36" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="9:15">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I37" s="62" t="s">
         <v>213</v>
       </c>
@@ -11655,7 +11657,7 @@
       <c r="N37" s="41"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="9:15">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I38" s="62" t="s">
         <v>241</v>
       </c>
@@ -11668,9 +11670,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="9:15">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I39" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J39" s="42"/>
       <c r="K39" s="41" t="s">
@@ -11683,9 +11685,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="9:15">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I40" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="41"/>
@@ -11696,9 +11698,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="9:15">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I41" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J41" s="42"/>
       <c r="K41" s="41" t="s">
@@ -11711,9 +11713,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="9:15">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I42" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="41"/>
@@ -11724,9 +11726,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="9:15">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I43" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="41" t="s">
@@ -11739,9 +11741,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="9:15">
+    <row r="44" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I44" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="41"/>
@@ -11752,9 +11754,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="9:15">
+    <row r="45" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I45" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="41" t="s">
@@ -11767,9 +11769,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="9:15">
+    <row r="46" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I46" s="62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="41"/>
@@ -11780,7 +11782,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="9:15">
+    <row r="47" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I47" s="62" t="s">
         <v>245</v>
       </c>
@@ -11795,7 +11797,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="9:15">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I48" s="62" t="s">
         <v>246</v>
       </c>
@@ -11808,9 +11810,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I49" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J49" s="42"/>
       <c r="K49" s="41"/>
@@ -11821,7 +11823,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="66" t="s">
         <v>254</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1">
+    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I51" s="54"/>
       <c r="J51" s="54"/>
       <c r="K51" s="54"/>
@@ -11843,30 +11845,30 @@
       <c r="N51" s="54"/>
       <c r="O51" s="54"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I52" s="59" t="s">
         <v>103</v>
       </c>
       <c r="J52" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K52" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="L52" s="60" t="s">
+      <c r="M52" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="M52" s="60" t="s">
+      <c r="N52" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="N52" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="O52" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I53" s="62" t="s">
         <v>213</v>
       </c>
@@ -11879,7 +11881,7 @@
       <c r="N53" s="41"/>
       <c r="O53" s="64"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I54" s="62" t="s">
         <v>241</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I55" s="62" t="s">
         <v>242</v>
       </c>
@@ -11907,9 +11909,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I56" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J56" s="42"/>
       <c r="K56" s="41"/>
@@ -11920,7 +11922,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I57" s="66" t="s">
         <v>254</v>
       </c>
@@ -11933,7 +11935,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -11943,7 +11945,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -11952,7 +11954,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -11962,7 +11964,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="25"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -11972,7 +11974,7 @@
       <c r="G64"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -11982,7 +11984,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>211</v>
       </c>
@@ -11996,7 +11998,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -12005,7 +12007,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -12014,7 +12016,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -12023,7 +12025,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -12040,7 +12042,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -12056,7 +12058,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -12072,7 +12074,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -12088,7 +12090,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -12105,7 +12107,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -12115,7 +12117,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -12124,7 +12126,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -12133,7 +12135,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -12143,7 +12145,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -12153,7 +12155,7 @@
       <c r="G79" s="27"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -12163,7 +12165,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -12173,7 +12175,7 @@
       <c r="G81" s="8"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -12183,7 +12185,7 @@
       <c r="G82" s="8"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -12200,7 +12202,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -12217,7 +12219,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -12233,7 +12235,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -12250,7 +12252,7 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -12267,7 +12269,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -12276,7 +12278,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -12285,7 +12287,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -12294,7 +12296,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -12304,7 +12306,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -12313,7 +12315,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -12322,7 +12324,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -12331,7 +12333,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -12348,7 +12350,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -12365,7 +12367,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -12381,7 +12383,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -12397,7 +12399,7 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -12414,7 +12416,7 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -12424,7 +12426,7 @@
       <c r="G100" s="8"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -12434,7 +12436,7 @@
       <c r="G101" s="8"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -12444,7 +12446,7 @@
       <c r="G102" s="8"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -12453,7 +12455,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -12462,7 +12464,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -12471,7 +12473,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -12481,7 +12483,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -12491,7 +12493,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -12501,7 +12503,7 @@
       <c r="G108"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -12511,7 +12513,7 @@
       <c r="G109"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -12521,7 +12523,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -12529,7 +12531,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="118" spans="9:15">
+    <row r="118" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -12538,7 +12540,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="9:15">
+    <row r="119" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I119"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -12547,7 +12549,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="9:15">
+    <row r="120" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
